--- a/static/Models/Classification/Equation/Real Estate.xlsx
+++ b/static/Models/Classification/Equation/Real Estate.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>6.54570484161377</v>
+        <v>6.750142097473145</v>
       </c>
       <c r="C2">
-        <v>3.999581098556519</v>
+        <v>4.198237895965576</v>
       </c>
       <c r="D2">
-        <v>-4.87481689453125</v>
+        <v>-4.060360431671143</v>
       </c>
       <c r="E2">
-        <v>2.328044652938843</v>
+        <v>1.615077257156372</v>
       </c>
       <c r="F2">
-        <v>-2.557615518569946</v>
+        <v>-3.400456190109253</v>
       </c>
       <c r="G2">
-        <v>6.370960712432861</v>
+        <v>5.867154121398926</v>
       </c>
       <c r="H2">
-        <v>-0.03833555057644844</v>
+        <v>0.0831950381398201</v>
       </c>
       <c r="I2">
-        <v>-0.2374475449323654</v>
+        <v>-0.1855798810720444</v>
       </c>
       <c r="J2">
-        <v>-6.773207187652588</v>
+        <v>-6.921590328216553</v>
       </c>
       <c r="K2">
-        <v>-0.718450129032135</v>
+        <v>-1.626088738441467</v>
       </c>
       <c r="L2">
-        <v>-0.4726099371910095</v>
+        <v>-1.38787043094635</v>
       </c>
       <c r="M2">
-        <v>0.8132849931716919</v>
+        <v>0.2620503306388855</v>
       </c>
       <c r="N2">
-        <v>-2.276518821716309</v>
+        <v>-2.005338907241821</v>
       </c>
       <c r="O2">
-        <v>7.859949111938477</v>
+        <v>7.970046043395996</v>
       </c>
       <c r="P2">
-        <v>-5.122297763824463</v>
+        <v>-5.609293937683105</v>
       </c>
       <c r="Q2">
-        <v>-0.05964362621307373</v>
+        <v>0.01189524494111538</v>
       </c>
       <c r="R2">
-        <v>0.9939036965370178</v>
+        <v>1.867968916893005</v>
       </c>
       <c r="S2">
-        <v>2.745969533920288</v>
+        <v>3.608052730560303</v>
       </c>
       <c r="T2">
-        <v>-2.140911102294922</v>
+        <v>-2.462707042694092</v>
       </c>
       <c r="U2">
-        <v>-9.533289909362793</v>
+        <v>-10.24869728088379</v>
       </c>
       <c r="V2">
-        <v>-3.305474042892456</v>
+        <v>-3.601244449615479</v>
       </c>
       <c r="W2">
-        <v>-3.679262638092041</v>
+        <v>-4.265532970428467</v>
       </c>
       <c r="X2">
-        <v>-0.5362917184829712</v>
+        <v>0.3704247772693634</v>
       </c>
       <c r="Y2">
-        <v>-0.8467852473258972</v>
+        <v>-1.374968647956848</v>
       </c>
       <c r="Z2">
-        <v>2.104740381240845</v>
+        <v>1.283594727516174</v>
       </c>
       <c r="AA2">
-        <v>1.508325457572937</v>
+        <v>1.955949068069458</v>
       </c>
       <c r="AB2">
-        <v>2.582528114318848</v>
+        <v>1.798227190971375</v>
       </c>
       <c r="AC2">
-        <v>-3.2442786693573</v>
+        <v>-3.904605627059937</v>
       </c>
       <c r="AD2">
-        <v>1.026038527488708</v>
+        <v>1.060329675674438</v>
       </c>
       <c r="AE2">
-        <v>10.54623889923096</v>
+        <v>9.982412338256836</v>
       </c>
       <c r="AF2">
-        <v>-0.9665712118148804</v>
+        <v>-0.8877305388450623</v>
       </c>
       <c r="AG2">
-        <v>7.416437149047852</v>
+        <v>8.149232864379883</v>
       </c>
       <c r="AH2">
-        <v>-14.81761074066162</v>
+        <v>-14.69635486602783</v>
       </c>
       <c r="AI2">
-        <v>-3.027420520782471</v>
+        <v>-3.585938692092896</v>
       </c>
       <c r="AJ2">
-        <v>-1.499634385108948</v>
+        <v>-2.268381834030151</v>
       </c>
       <c r="AK2">
-        <v>1.328128337860107</v>
+        <v>1.628073334693909</v>
       </c>
       <c r="AL2">
-        <v>3.324548482894897</v>
+        <v>3.143930196762085</v>
       </c>
       <c r="AM2">
-        <v>4.04014253616333</v>
+        <v>3.103858947753906</v>
       </c>
       <c r="AN2">
-        <v>9.116950035095215</v>
+        <v>8.989349365234375</v>
       </c>
       <c r="AO2">
-        <v>7.850649833679199</v>
+        <v>7.435385704040527</v>
       </c>
       <c r="AP2">
-        <v>-9.10990047454834</v>
+        <v>-9.883317947387695</v>
       </c>
       <c r="AQ2">
-        <v>-0.6235730051994324</v>
+        <v>-0.05030312016606331</v>
       </c>
       <c r="AR2">
-        <v>9.029759407043457</v>
+        <v>8.522114753723145</v>
       </c>
       <c r="AS2">
-        <v>-9.398382186889648</v>
+        <v>-9.911499977111816</v>
       </c>
       <c r="AT2">
-        <v>1.929631233215332</v>
+        <v>0.8945842385292053</v>
       </c>
       <c r="AU2">
-        <v>-5.560790061950684</v>
+        <v>-5.834911346435547</v>
       </c>
       <c r="AV2">
-        <v>-5.477702140808105</v>
+        <v>-6.303818225860596</v>
       </c>
       <c r="AW2">
-        <v>-1.59221875667572</v>
+        <v>-0.9515830874443054</v>
       </c>
       <c r="AX2">
-        <v>7.547592163085938</v>
+        <v>7.708404064178467</v>
       </c>
       <c r="AY2">
-        <v>-0.3086517453193665</v>
+        <v>-0.5206785202026367</v>
       </c>
       <c r="AZ2">
-        <v>5.197355270385742</v>
+        <v>5.39967679977417</v>
       </c>
       <c r="BA2">
-        <v>5.852449417114258</v>
+        <v>5.383800029754639</v>
       </c>
       <c r="BB2">
-        <v>11.41403198242188</v>
+        <v>12.22759628295898</v>
       </c>
       <c r="BC2">
-        <v>0.4208073318004608</v>
+        <v>1.105552196502686</v>
       </c>
       <c r="BD2">
-        <v>0.9054715037345886</v>
+        <v>0.8217098116874695</v>
       </c>
       <c r="BE2">
-        <v>-1.89881420135498</v>
+        <v>-2.309407949447632</v>
       </c>
       <c r="BF2">
-        <v>-3.112856388092041</v>
+        <v>-2.454811334609985</v>
       </c>
       <c r="BG2">
-        <v>1.676931619644165</v>
+        <v>1.198460459709167</v>
       </c>
       <c r="BH2">
-        <v>0.06445580720901489</v>
+        <v>0.6965069174766541</v>
       </c>
       <c r="BI2">
-        <v>1.127283453941345</v>
+        <v>0.7759523987770081</v>
       </c>
       <c r="BJ2">
-        <v>3.257124423980713</v>
+        <v>3.846224784851074</v>
       </c>
       <c r="BK2">
-        <v>0.3108467757701874</v>
+        <v>0.9604294896125793</v>
       </c>
       <c r="BL2">
-        <v>0.1158129274845123</v>
+        <v>0.02268044091761112</v>
       </c>
       <c r="BM2">
-        <v>6.596820831298828</v>
+        <v>7.367232322692871</v>
       </c>
       <c r="BN2">
-        <v>-6.745223522186279</v>
+        <v>-6.160059452056885</v>
       </c>
       <c r="BO2">
-        <v>-12.85349082946777</v>
+        <v>-12.20864582061768</v>
       </c>
       <c r="BP2">
-        <v>-3.124260902404785</v>
+        <v>-3.225706577301025</v>
       </c>
       <c r="BQ2">
-        <v>1.887320280075073</v>
+        <v>1.166425824165344</v>
       </c>
       <c r="BR2">
-        <v>-0.05033122375607491</v>
+        <v>0.9203612804412842</v>
       </c>
       <c r="BS2">
-        <v>-0.6657942533493042</v>
+        <v>-0.06661301851272583</v>
       </c>
       <c r="BT2">
-        <v>0.0700657069683075</v>
+        <v>0.4718360304832458</v>
       </c>
       <c r="BU2">
-        <v>1.418854832649231</v>
+        <v>1.123793125152588</v>
       </c>
       <c r="BV2">
-        <v>-9.077377319335938</v>
+        <v>-9.788423538208008</v>
       </c>
       <c r="BW2">
-        <v>-1.469461917877197</v>
+        <v>-0.9836130142211914</v>
       </c>
       <c r="BX2">
-        <v>-7.182331085205078</v>
+        <v>-7.486498355865479</v>
       </c>
       <c r="BY2">
-        <v>-0.286028653383255</v>
+        <v>-0.7172373533248901</v>
       </c>
       <c r="BZ2">
-        <v>-4.02460765838623</v>
+        <v>-4.434104919433594</v>
       </c>
       <c r="CA2">
-        <v>-0.1059153899550438</v>
+        <v>0.4120284616947174</v>
       </c>
       <c r="CB2">
-        <v>-5.055583477020264</v>
+        <v>-5.850258827209473</v>
       </c>
       <c r="CC2">
-        <v>0.2427364587783813</v>
+        <v>0.1624889075756073</v>
       </c>
       <c r="CD2">
-        <v>-0.01375895738601685</v>
+        <v>-0.4688698053359985</v>
       </c>
       <c r="CE2">
-        <v>-11.79307174682617</v>
+        <v>-12.62353324890137</v>
       </c>
       <c r="CF2">
-        <v>9.043696403503418</v>
+        <v>8.429067611694336</v>
       </c>
       <c r="CG2">
-        <v>-6.256892681121826</v>
+        <v>-6.256686687469482</v>
       </c>
       <c r="CH2">
-        <v>-10.92259216308594</v>
+        <v>-10.07803726196289</v>
       </c>
       <c r="CI2">
-        <v>-1.16562557220459</v>
+        <v>-1.012385129928589</v>
       </c>
       <c r="CJ2">
-        <v>-3.950613498687744</v>
+        <v>-3.538794279098511</v>
       </c>
       <c r="CK2">
-        <v>-2.33302903175354</v>
+        <v>-2.137367725372314</v>
       </c>
       <c r="CL2">
-        <v>-2.160998582839966</v>
+        <v>-2.183026790618896</v>
       </c>
       <c r="CM2">
-        <v>-2.788880825042725</v>
+        <v>-3.212959289550781</v>
       </c>
       <c r="CN2">
-        <v>3.519173383712769</v>
+        <v>2.655165910720825</v>
       </c>
       <c r="CO2">
-        <v>-2.90895414352417</v>
+        <v>-2.763209104537964</v>
       </c>
       <c r="CP2">
-        <v>-4.058631420135498</v>
+        <v>-4.217179298400879</v>
       </c>
       <c r="CQ2">
-        <v>14.31652927398682</v>
+        <v>15.00272178649902</v>
       </c>
       <c r="CR2">
-        <v>4.049192905426025</v>
+        <v>4.1418137550354</v>
       </c>
       <c r="CS2">
-        <v>-2.439546585083008</v>
+        <v>-2.109692811965942</v>
       </c>
       <c r="CT2">
-        <v>0.4408819973468781</v>
+        <v>0.6754850745201111</v>
       </c>
       <c r="CU2">
-        <v>-1.066549777984619</v>
+        <v>-0.2345318496227264</v>
       </c>
       <c r="CV2">
-        <v>2.485862731933594</v>
+        <v>2.147225379943848</v>
       </c>
       <c r="CW2">
-        <v>-6.243757247924805</v>
+        <v>-5.668943405151367</v>
       </c>
       <c r="CX2">
-        <v>0.1298483908176422</v>
+        <v>-0.02093740552663803</v>
       </c>
       <c r="CY2">
-        <v>-3.749038219451904</v>
+        <v>-3.471534252166748</v>
       </c>
       <c r="CZ2">
-        <v>-3.365504026412964</v>
+        <v>-2.899834632873535</v>
       </c>
       <c r="DA2">
-        <v>-8.803497314453125</v>
+        <v>-8.108790397644043</v>
       </c>
       <c r="DB2">
-        <v>-2.863165140151978</v>
+        <v>-3.861607074737549</v>
       </c>
       <c r="DC2">
-        <v>2.476382493972778</v>
+        <v>2.260263681411743</v>
       </c>
       <c r="DD2">
-        <v>-6.715897560119629</v>
+        <v>-6.740596771240234</v>
       </c>
       <c r="DE2">
-        <v>0.5770638585090637</v>
+        <v>0.9376729130744934</v>
       </c>
       <c r="DF2">
-        <v>12.65818023681641</v>
+        <v>12.40000438690186</v>
       </c>
       <c r="DG2">
-        <v>-3.058747291564941</v>
+        <v>-2.577969312667847</v>
       </c>
       <c r="DH2">
-        <v>-5.818533420562744</v>
+        <v>-6.725610733032227</v>
       </c>
       <c r="DI2">
-        <v>-2.575929641723633</v>
+        <v>-1.6722491979599</v>
       </c>
       <c r="DJ2">
-        <v>-7.828196048736572</v>
+        <v>-6.942254543304443</v>
       </c>
       <c r="DK2">
-        <v>10.00576972961426</v>
+        <v>10.57204627990723</v>
       </c>
       <c r="DL2">
-        <v>10.89855098724365</v>
+        <v>10.34918689727783</v>
       </c>
       <c r="DM2">
-        <v>5.350113868713379</v>
+        <v>4.609165191650391</v>
       </c>
       <c r="DN2">
-        <v>1.924610376358032</v>
+        <v>1.697875142097473</v>
       </c>
       <c r="DO2">
-        <v>-3.602970123291016</v>
+        <v>-4.414245128631592</v>
       </c>
       <c r="DP2">
-        <v>6.724604606628418</v>
+        <v>5.894904136657715</v>
       </c>
       <c r="DQ2">
-        <v>0.5669523477554321</v>
+        <v>0.9953144788742065</v>
       </c>
       <c r="DR2">
-        <v>-0.5735703110694885</v>
+        <v>-0.1728786677122116</v>
       </c>
       <c r="DS2">
-        <v>-11.79931545257568</v>
+        <v>-12.26955509185791</v>
       </c>
       <c r="DT2">
-        <v>-2.964351654052734</v>
+        <v>-2.261717557907104</v>
       </c>
       <c r="DU2">
-        <v>-3.381081581115723</v>
+        <v>-3.755189895629883</v>
       </c>
       <c r="DV2">
-        <v>1.894759654998779</v>
+        <v>1.532335877418518</v>
       </c>
       <c r="DW2">
-        <v>1.452923178672791</v>
+        <v>1.532624483108521</v>
       </c>
       <c r="DX2">
-        <v>1.928223490715027</v>
+        <v>1.834468007087708</v>
       </c>
       <c r="DY2">
-        <v>-7.226694583892822</v>
+        <v>-6.608012199401855</v>
       </c>
       <c r="DZ2">
-        <v>0.4572440087795258</v>
+        <v>0.6378210186958313</v>
       </c>
       <c r="EA2">
-        <v>-7.230302810668945</v>
+        <v>-7.703704357147217</v>
       </c>
       <c r="EB2">
-        <v>-0.1368607133626938</v>
+        <v>-0.007793135475367308</v>
       </c>
       <c r="EC2">
-        <v>-0.5661453604698181</v>
+        <v>0.02919697016477585</v>
       </c>
       <c r="ED2">
-        <v>1.787142634391785</v>
+        <v>1.340227127075195</v>
       </c>
       <c r="EE2">
-        <v>-3.309584856033325</v>
+        <v>-2.989310026168823</v>
       </c>
       <c r="EF2">
-        <v>2.117921590805054</v>
+        <v>1.389419913291931</v>
       </c>
       <c r="EG2">
-        <v>3.728431463241577</v>
+        <v>2.773897647857666</v>
       </c>
       <c r="EH2">
-        <v>-14.94910049438477</v>
+        <v>-15.93774795532227</v>
       </c>
       <c r="EI2">
-        <v>-6.996524810791016</v>
+        <v>-7.583533763885498</v>
       </c>
       <c r="EJ2">
-        <v>-2.042407274246216</v>
+        <v>-2.795688390731812</v>
       </c>
       <c r="EK2">
-        <v>0.9419111013412476</v>
+        <v>0.6250966787338257</v>
       </c>
       <c r="EL2">
-        <v>0.1213690787553787</v>
+        <v>0.1531087905168533</v>
       </c>
       <c r="EM2">
-        <v>2.599545240402222</v>
+        <v>1.793288946151733</v>
       </c>
       <c r="EN2">
-        <v>13.07596588134766</v>
+        <v>13.29723167419434</v>
       </c>
       <c r="EO2">
-        <v>-1.616415500640869</v>
+        <v>-1.833423733711243</v>
       </c>
       <c r="EP2">
-        <v>-0.4812018275260925</v>
+        <v>-0.9018974900245667</v>
       </c>
       <c r="EQ2">
-        <v>-8.52874755859375</v>
+        <v>-9.376889228820801</v>
       </c>
       <c r="ER2">
-        <v>0.4635308384895325</v>
+        <v>0.7257225513458252</v>
       </c>
       <c r="ES2">
-        <v>-7.208734035491943</v>
+        <v>-7.797191143035889</v>
       </c>
       <c r="ET2">
-        <v>1.813418626785278</v>
+        <v>1.377372741699219</v>
       </c>
       <c r="EU2">
-        <v>-2.282463550567627</v>
+        <v>-1.653178334236145</v>
       </c>
       <c r="EV2">
-        <v>-3.740582942962646</v>
+        <v>-3.521482467651367</v>
       </c>
       <c r="EW2">
-        <v>-3.893533706665039</v>
+        <v>-3.157817125320435</v>
       </c>
       <c r="EX2">
-        <v>-7.902184009552002</v>
+        <v>-8.55532169342041</v>
       </c>
       <c r="EY2">
-        <v>1.660294651985168</v>
+        <v>1.462682485580444</v>
       </c>
       <c r="EZ2">
-        <v>7.252015113830566</v>
+        <v>7.967865943908691</v>
       </c>
       <c r="FA2">
-        <v>0.5704368948936462</v>
+        <v>-0.2496156841516495</v>
       </c>
       <c r="FB2">
-        <v>-0.1324198096990585</v>
+        <v>0.2022639513015747</v>
       </c>
       <c r="FC2">
-        <v>0.2692191898822784</v>
+        <v>-0.5821478962898254</v>
       </c>
       <c r="FD2">
-        <v>-0.8216556906700134</v>
+        <v>-0.3121094405651093</v>
       </c>
       <c r="FE2">
-        <v>-5.6916823387146</v>
+        <v>-5.801925182342529</v>
       </c>
       <c r="FF2">
-        <v>-5.18731689453125</v>
+        <v>-4.545990467071533</v>
       </c>
       <c r="FG2">
-        <v>-0.2698792815208435</v>
+        <v>0.5888504385948181</v>
       </c>
       <c r="FH2">
-        <v>1.681141495704651</v>
+        <v>2.412011861801147</v>
       </c>
       <c r="FI2">
-        <v>3.474142789840698</v>
+        <v>4.312083721160889</v>
       </c>
       <c r="FJ2">
-        <v>-2.607009172439575</v>
+        <v>-3.455025196075439</v>
       </c>
       <c r="FK2">
-        <v>15.1712818145752</v>
+        <v>14.85668849945068</v>
       </c>
       <c r="FL2">
-        <v>-1.65424907207489</v>
+        <v>-2.073091983795166</v>
       </c>
       <c r="FM2">
-        <v>-10.27543926239014</v>
+        <v>-10.25484180450439</v>
       </c>
       <c r="FN2">
-        <v>-2.209306240081787</v>
+        <v>-2.413062572479248</v>
       </c>
       <c r="FO2">
-        <v>0.5535456538200378</v>
+        <v>-0.3061724007129669</v>
       </c>
       <c r="FP2">
-        <v>1.038281202316284</v>
+        <v>0.198228731751442</v>
       </c>
       <c r="FQ2">
-        <v>-1.587770104408264</v>
+        <v>-1.475909471511841</v>
       </c>
       <c r="FR2">
-        <v>1.061949133872986</v>
+        <v>1.43697464466095</v>
       </c>
       <c r="FS2">
-        <v>0.7586819529533386</v>
+        <v>0.8519274592399597</v>
       </c>
       <c r="FT2">
-        <v>-0.09101184457540512</v>
+        <v>-0.5324864387512207</v>
       </c>
       <c r="FU2">
-        <v>0.1126201748847961</v>
+        <v>-0.4393142759799957</v>
       </c>
       <c r="FV2">
-        <v>-0.4343579709529877</v>
+        <v>-0.4291770458221436</v>
       </c>
       <c r="FW2">
-        <v>2.110079526901245</v>
+        <v>1.841475486755371</v>
       </c>
       <c r="FX2">
-        <v>1.401759266853333</v>
+        <v>1.607921957969666</v>
       </c>
       <c r="FY2">
-        <v>0.05618298426270485</v>
+        <v>-0.8281394243240356</v>
       </c>
       <c r="FZ2">
-        <v>-0.4200035035610199</v>
+        <v>0.1686165630817413</v>
       </c>
       <c r="GA2">
-        <v>-6.592389583587646</v>
+        <v>-5.952502727508545</v>
       </c>
       <c r="GB2">
-        <v>0.4235976040363312</v>
+        <v>0.09524066746234894</v>
       </c>
       <c r="GC2">
-        <v>-0.9474537372589111</v>
+        <v>-1.605362296104431</v>
       </c>
       <c r="GD2">
-        <v>-8.760854721069336</v>
+        <v>-9.115583419799805</v>
       </c>
       <c r="GE2">
-        <v>1.812454700469971</v>
+        <v>1.99499237537384</v>
       </c>
       <c r="GF2">
-        <v>0.7142345905303955</v>
+        <v>-0.1598942875862122</v>
       </c>
       <c r="GG2">
-        <v>-3.25787615776062</v>
+        <v>-3.547566175460815</v>
       </c>
       <c r="GH2">
-        <v>-1.987624287605286</v>
+        <v>-2.440720319747925</v>
       </c>
       <c r="GI2">
-        <v>6.418580532073975</v>
+        <v>6.850954055786133</v>
       </c>
       <c r="GJ2">
-        <v>0.2936227917671204</v>
+        <v>-0.6451618075370789</v>
       </c>
       <c r="GK2">
-        <v>-2.256131172180176</v>
+        <v>-1.593390107154846</v>
       </c>
       <c r="GL2">
-        <v>-6.782970905303955</v>
+        <v>-7.533540725708008</v>
       </c>
       <c r="GM2">
-        <v>0.6450031995773315</v>
+        <v>-0.1370043903589249</v>
       </c>
       <c r="GN2">
-        <v>-4.010205745697021</v>
+        <v>-4.903017044067383</v>
       </c>
       <c r="GO2">
-        <v>3.775808095932007</v>
+        <v>3.834794282913208</v>
       </c>
       <c r="GP2">
-        <v>1.410120248794556</v>
+        <v>1.531961560249329</v>
       </c>
       <c r="GQ2">
-        <v>-0.3867955207824707</v>
+        <v>-1.167899370193481</v>
       </c>
       <c r="GR2">
-        <v>0.720553994178772</v>
+        <v>1.157471299171448</v>
       </c>
       <c r="GS2">
-        <v>4.755786418914795</v>
+        <v>4.935120105743408</v>
       </c>
       <c r="GT2">
-        <v>-0.7475925087928772</v>
+        <v>-0.03992584347724915</v>
       </c>
       <c r="GU2">
-        <v>6.614411354064941</v>
+        <v>7.370017051696777</v>
       </c>
       <c r="GV2">
-        <v>-3.286416530609131</v>
+        <v>-2.350946426391602</v>
       </c>
       <c r="GW2">
-        <v>5.527786254882812</v>
+        <v>5.956474781036377</v>
       </c>
       <c r="GX2">
-        <v>-0.1294047087430954</v>
+        <v>0.3465814888477325</v>
       </c>
       <c r="GY2">
-        <v>1.106814980506897</v>
+        <v>1.106744408607483</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Real Estate.xlsx
+++ b/static/Models/Classification/Equation/Real Estate.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>6.750142097473145</v>
+        <v>7.04689359664917</v>
       </c>
       <c r="C2">
-        <v>4.198237895965576</v>
+        <v>4.94105052947998</v>
       </c>
       <c r="D2">
-        <v>-4.060360431671143</v>
+        <v>-3.622220993041992</v>
       </c>
       <c r="E2">
-        <v>1.615077257156372</v>
+        <v>1.735189437866211</v>
       </c>
       <c r="F2">
-        <v>-3.400456190109253</v>
+        <v>-2.767844676971436</v>
       </c>
       <c r="G2">
-        <v>5.867154121398926</v>
+        <v>5.077572822570801</v>
       </c>
       <c r="H2">
-        <v>0.0831950381398201</v>
+        <v>0.7135385274887085</v>
       </c>
       <c r="I2">
-        <v>-0.1855798810720444</v>
+        <v>-0.6721218824386597</v>
       </c>
       <c r="J2">
-        <v>-6.921590328216553</v>
+        <v>-7.025980472564697</v>
       </c>
       <c r="K2">
-        <v>-1.626088738441467</v>
+        <v>-1.187121629714966</v>
       </c>
       <c r="L2">
-        <v>-1.38787043094635</v>
+        <v>-0.7227292060852051</v>
       </c>
       <c r="M2">
-        <v>0.2620503306388855</v>
+        <v>0.9625263810157776</v>
       </c>
       <c r="N2">
-        <v>-2.005338907241821</v>
+        <v>-1.391700029373169</v>
       </c>
       <c r="O2">
-        <v>7.970046043395996</v>
+        <v>8.665024757385254</v>
       </c>
       <c r="P2">
-        <v>-5.609293937683105</v>
+        <v>-6.116705894470215</v>
       </c>
       <c r="Q2">
-        <v>0.01189524494111538</v>
+        <v>-0.03903067111968994</v>
       </c>
       <c r="R2">
-        <v>1.867968916893005</v>
+        <v>1.581498622894287</v>
       </c>
       <c r="S2">
-        <v>3.608052730560303</v>
+        <v>3.058943033218384</v>
       </c>
       <c r="T2">
-        <v>-2.462707042694092</v>
+        <v>-2.770060777664185</v>
       </c>
       <c r="U2">
-        <v>-10.24869728088379</v>
+        <v>-9.945523262023926</v>
       </c>
       <c r="V2">
-        <v>-3.601244449615479</v>
+        <v>-2.974033355712891</v>
       </c>
       <c r="W2">
-        <v>-4.265532970428467</v>
+        <v>-4.653934955596924</v>
       </c>
       <c r="X2">
-        <v>0.3704247772693634</v>
+        <v>-0.002957795513793826</v>
       </c>
       <c r="Y2">
-        <v>-1.374968647956848</v>
+        <v>-0.6863135695457458</v>
       </c>
       <c r="Z2">
-        <v>1.283594727516174</v>
+        <v>0.8256840705871582</v>
       </c>
       <c r="AA2">
-        <v>1.955949068069458</v>
+        <v>2.57765531539917</v>
       </c>
       <c r="AB2">
-        <v>1.798227190971375</v>
+        <v>1.587159037590027</v>
       </c>
       <c r="AC2">
-        <v>-3.904605627059937</v>
+        <v>-4.106308937072754</v>
       </c>
       <c r="AD2">
-        <v>1.060329675674438</v>
+        <v>0.7704235911369324</v>
       </c>
       <c r="AE2">
-        <v>9.982412338256836</v>
+        <v>10.32048416137695</v>
       </c>
       <c r="AF2">
-        <v>-0.8877305388450623</v>
+        <v>-0.8395287394523621</v>
       </c>
       <c r="AG2">
-        <v>8.149232864379883</v>
+        <v>7.439527988433838</v>
       </c>
       <c r="AH2">
-        <v>-14.69635486602783</v>
+        <v>-14.31454467773438</v>
       </c>
       <c r="AI2">
-        <v>-3.585938692092896</v>
+        <v>-2.894054174423218</v>
       </c>
       <c r="AJ2">
-        <v>-2.268381834030151</v>
+        <v>-2.976936817169189</v>
       </c>
       <c r="AK2">
-        <v>1.628073334693909</v>
+        <v>2.207680702209473</v>
       </c>
       <c r="AL2">
-        <v>3.143930196762085</v>
+        <v>3.601756572723389</v>
       </c>
       <c r="AM2">
-        <v>3.103858947753906</v>
+        <v>3.239989042282104</v>
       </c>
       <c r="AN2">
-        <v>8.989349365234375</v>
+        <v>9.582548141479492</v>
       </c>
       <c r="AO2">
-        <v>7.435385704040527</v>
+        <v>7.290824890136719</v>
       </c>
       <c r="AP2">
-        <v>-9.883317947387695</v>
+        <v>-10.08443832397461</v>
       </c>
       <c r="AQ2">
-        <v>-0.05030312016606331</v>
+        <v>-0.5150564312934875</v>
       </c>
       <c r="AR2">
-        <v>8.522114753723145</v>
+        <v>8.343513488769531</v>
       </c>
       <c r="AS2">
-        <v>-9.911499977111816</v>
+        <v>-9.316041946411133</v>
       </c>
       <c r="AT2">
-        <v>0.8945842385292053</v>
+        <v>1.253490090370178</v>
       </c>
       <c r="AU2">
-        <v>-5.834911346435547</v>
+        <v>-5.44533634185791</v>
       </c>
       <c r="AV2">
-        <v>-6.303818225860596</v>
+        <v>-6.226391792297363</v>
       </c>
       <c r="AW2">
-        <v>-0.9515830874443054</v>
+        <v>-0.9265498518943787</v>
       </c>
       <c r="AX2">
-        <v>7.708404064178467</v>
+        <v>8.098104476928711</v>
       </c>
       <c r="AY2">
-        <v>-0.5206785202026367</v>
+        <v>-1.202439308166504</v>
       </c>
       <c r="AZ2">
-        <v>5.39967679977417</v>
+        <v>6.120998859405518</v>
       </c>
       <c r="BA2">
-        <v>5.383800029754639</v>
+        <v>6.051232814788818</v>
       </c>
       <c r="BB2">
-        <v>12.22759628295898</v>
+        <v>12.55349636077881</v>
       </c>
       <c r="BC2">
-        <v>1.105552196502686</v>
+        <v>0.7764644026756287</v>
       </c>
       <c r="BD2">
-        <v>0.8217098116874695</v>
+        <v>0.5879841446876526</v>
       </c>
       <c r="BE2">
-        <v>-2.309407949447632</v>
+        <v>-2.087728023529053</v>
       </c>
       <c r="BF2">
-        <v>-2.454811334609985</v>
+        <v>-1.98838210105896</v>
       </c>
       <c r="BG2">
-        <v>1.198460459709167</v>
+        <v>1.005709290504456</v>
       </c>
       <c r="BH2">
-        <v>0.6965069174766541</v>
+        <v>0.514615535736084</v>
       </c>
       <c r="BI2">
-        <v>0.7759523987770081</v>
+        <v>0.7875339984893799</v>
       </c>
       <c r="BJ2">
-        <v>3.846224784851074</v>
+        <v>4.482536792755127</v>
       </c>
       <c r="BK2">
-        <v>0.9604294896125793</v>
+        <v>0.5836091637611389</v>
       </c>
       <c r="BL2">
-        <v>0.02268044091761112</v>
+        <v>0.3653444945812225</v>
       </c>
       <c r="BM2">
-        <v>7.367232322692871</v>
+        <v>7.277582168579102</v>
       </c>
       <c r="BN2">
-        <v>-6.160059452056885</v>
+        <v>-6.069784641265869</v>
       </c>
       <c r="BO2">
-        <v>-12.20864582061768</v>
+        <v>-12.38323783874512</v>
       </c>
       <c r="BP2">
-        <v>-3.225706577301025</v>
+        <v>-3.678297996520996</v>
       </c>
       <c r="BQ2">
-        <v>1.166425824165344</v>
+        <v>0.9967978596687317</v>
       </c>
       <c r="BR2">
-        <v>0.9203612804412842</v>
+        <v>1.380203008651733</v>
       </c>
       <c r="BS2">
-        <v>-0.06661301851272583</v>
+        <v>-0.7354063391685486</v>
       </c>
       <c r="BT2">
-        <v>0.4718360304832458</v>
+        <v>1.046700954437256</v>
       </c>
       <c r="BU2">
-        <v>1.123793125152588</v>
+        <v>0.482035368680954</v>
       </c>
       <c r="BV2">
-        <v>-9.788423538208008</v>
+        <v>-10.42753314971924</v>
       </c>
       <c r="BW2">
-        <v>-0.9836130142211914</v>
+        <v>-0.8753488659858704</v>
       </c>
       <c r="BX2">
-        <v>-7.486498355865479</v>
+        <v>-7.720846652984619</v>
       </c>
       <c r="BY2">
-        <v>-0.7172373533248901</v>
+        <v>-1.358930587768555</v>
       </c>
       <c r="BZ2">
-        <v>-4.434104919433594</v>
+        <v>-4.572013378143311</v>
       </c>
       <c r="CA2">
-        <v>0.4120284616947174</v>
+        <v>0.5302327871322632</v>
       </c>
       <c r="CB2">
-        <v>-5.850258827209473</v>
+        <v>-5.650556564331055</v>
       </c>
       <c r="CC2">
-        <v>0.1624889075756073</v>
+        <v>-0.2688560485839844</v>
       </c>
       <c r="CD2">
-        <v>-0.4688698053359985</v>
+        <v>-0.8428031206130981</v>
       </c>
       <c r="CE2">
-        <v>-12.62353324890137</v>
+        <v>-12.67640018463135</v>
       </c>
       <c r="CF2">
-        <v>8.429067611694336</v>
+        <v>8.582306861877441</v>
       </c>
       <c r="CG2">
-        <v>-6.256686687469482</v>
+        <v>-5.935815334320068</v>
       </c>
       <c r="CH2">
-        <v>-10.07803726196289</v>
+        <v>-10.32395553588867</v>
       </c>
       <c r="CI2">
-        <v>-1.012385129928589</v>
+        <v>-1.119586944580078</v>
       </c>
       <c r="CJ2">
-        <v>-3.538794279098511</v>
+        <v>-3.082799434661865</v>
       </c>
       <c r="CK2">
-        <v>-2.137367725372314</v>
+        <v>-2.670077323913574</v>
       </c>
       <c r="CL2">
-        <v>-2.183026790618896</v>
+        <v>-2.562613964080811</v>
       </c>
       <c r="CM2">
-        <v>-3.212959289550781</v>
+        <v>-2.925207853317261</v>
       </c>
       <c r="CN2">
-        <v>2.655165910720825</v>
+        <v>2.358451128005981</v>
       </c>
       <c r="CO2">
-        <v>-2.763209104537964</v>
+        <v>-2.778396129608154</v>
       </c>
       <c r="CP2">
-        <v>-4.217179298400879</v>
+        <v>-3.920021772384644</v>
       </c>
       <c r="CQ2">
-        <v>15.00272178649902</v>
+        <v>15.47149753570557</v>
       </c>
       <c r="CR2">
-        <v>4.1418137550354</v>
+        <v>3.389805316925049</v>
       </c>
       <c r="CS2">
-        <v>-2.109692811965942</v>
+        <v>-2.031879901885986</v>
       </c>
       <c r="CT2">
-        <v>0.6754850745201111</v>
+        <v>0.2347698509693146</v>
       </c>
       <c r="CU2">
-        <v>-0.2345318496227264</v>
+        <v>-0.3511368036270142</v>
       </c>
       <c r="CV2">
-        <v>2.147225379943848</v>
+        <v>1.38786518573761</v>
       </c>
       <c r="CW2">
-        <v>-5.668943405151367</v>
+        <v>-6.254741668701172</v>
       </c>
       <c r="CX2">
-        <v>-0.02093740552663803</v>
+        <v>-0.8115609288215637</v>
       </c>
       <c r="CY2">
-        <v>-3.471534252166748</v>
+        <v>-3.539422512054443</v>
       </c>
       <c r="CZ2">
-        <v>-2.899834632873535</v>
+        <v>-2.236453056335449</v>
       </c>
       <c r="DA2">
-        <v>-8.108790397644043</v>
+        <v>-8.408684730529785</v>
       </c>
       <c r="DB2">
-        <v>-3.861607074737549</v>
+        <v>-3.745965719223022</v>
       </c>
       <c r="DC2">
-        <v>2.260263681411743</v>
+        <v>2.826688528060913</v>
       </c>
       <c r="DD2">
-        <v>-6.740596771240234</v>
+        <v>-6.885883808135986</v>
       </c>
       <c r="DE2">
-        <v>0.9376729130744934</v>
+        <v>1.068380355834961</v>
       </c>
       <c r="DF2">
-        <v>12.40000438690186</v>
+        <v>12.47558307647705</v>
       </c>
       <c r="DG2">
-        <v>-2.577969312667847</v>
+        <v>-3.23681378364563</v>
       </c>
       <c r="DH2">
-        <v>-6.725610733032227</v>
+        <v>-7.129051685333252</v>
       </c>
       <c r="DI2">
-        <v>-1.6722491979599</v>
+        <v>-1.683912515640259</v>
       </c>
       <c r="DJ2">
-        <v>-6.942254543304443</v>
+        <v>-6.749539852142334</v>
       </c>
       <c r="DK2">
-        <v>10.57204627990723</v>
+        <v>10.21951389312744</v>
       </c>
       <c r="DL2">
-        <v>10.34918689727783</v>
+        <v>11.01690769195557</v>
       </c>
       <c r="DM2">
-        <v>4.609165191650391</v>
+        <v>5.304329872131348</v>
       </c>
       <c r="DN2">
-        <v>1.697875142097473</v>
+        <v>1.323244571685791</v>
       </c>
       <c r="DO2">
-        <v>-4.414245128631592</v>
+        <v>-4.41761589050293</v>
       </c>
       <c r="DP2">
-        <v>5.894904136657715</v>
+        <v>6.064332962036133</v>
       </c>
       <c r="DQ2">
-        <v>0.9953144788742065</v>
+        <v>1.393038988113403</v>
       </c>
       <c r="DR2">
-        <v>-0.1728786677122116</v>
+        <v>-0.6681118607521057</v>
       </c>
       <c r="DS2">
-        <v>-12.26955509185791</v>
+        <v>-11.54796886444092</v>
       </c>
       <c r="DT2">
-        <v>-2.261717557907104</v>
+        <v>-2.552352428436279</v>
       </c>
       <c r="DU2">
-        <v>-3.755189895629883</v>
+        <v>-3.201255798339844</v>
       </c>
       <c r="DV2">
-        <v>1.532335877418518</v>
+        <v>0.8207635283470154</v>
       </c>
       <c r="DW2">
-        <v>1.532624483108521</v>
+        <v>2.166223287582397</v>
       </c>
       <c r="DX2">
-        <v>1.834468007087708</v>
+        <v>1.414835095405579</v>
       </c>
       <c r="DY2">
-        <v>-6.608012199401855</v>
+        <v>-6.125940799713135</v>
       </c>
       <c r="DZ2">
-        <v>0.6378210186958313</v>
+        <v>-0.07583322376012802</v>
       </c>
       <c r="EA2">
-        <v>-7.703704357147217</v>
+        <v>-7.525697708129883</v>
       </c>
       <c r="EB2">
-        <v>-0.007793135475367308</v>
+        <v>-0.2190722823143005</v>
       </c>
       <c r="EC2">
-        <v>0.02919697016477585</v>
+        <v>0.2971878349781036</v>
       </c>
       <c r="ED2">
-        <v>1.340227127075195</v>
+        <v>1.402087807655334</v>
       </c>
       <c r="EE2">
-        <v>-2.989310026168823</v>
+        <v>-3.229889154434204</v>
       </c>
       <c r="EF2">
-        <v>1.389419913291931</v>
+        <v>0.8632956743240356</v>
       </c>
       <c r="EG2">
-        <v>2.773897647857666</v>
+        <v>2.985267162322998</v>
       </c>
       <c r="EH2">
-        <v>-15.93774795532227</v>
+        <v>-15.98924922943115</v>
       </c>
       <c r="EI2">
-        <v>-7.583533763885498</v>
+        <v>-7.662548542022705</v>
       </c>
       <c r="EJ2">
-        <v>-2.795688390731812</v>
+        <v>-2.746644020080566</v>
       </c>
       <c r="EK2">
-        <v>0.6250966787338257</v>
+        <v>0.3204271495342255</v>
       </c>
       <c r="EL2">
-        <v>0.1531087905168533</v>
+        <v>-0.00771603174507618</v>
       </c>
       <c r="EM2">
-        <v>1.793288946151733</v>
+        <v>1.677772045135498</v>
       </c>
       <c r="EN2">
-        <v>13.29723167419434</v>
+        <v>13.51883411407471</v>
       </c>
       <c r="EO2">
-        <v>-1.833423733711243</v>
+        <v>-1.544682502746582</v>
       </c>
       <c r="EP2">
-        <v>-0.9018974900245667</v>
+        <v>-1.214970111846924</v>
       </c>
       <c r="EQ2">
-        <v>-9.376889228820801</v>
+        <v>-9.288951873779297</v>
       </c>
       <c r="ER2">
-        <v>0.7257225513458252</v>
+        <v>1.399598360061646</v>
       </c>
       <c r="ES2">
-        <v>-7.797191143035889</v>
+        <v>-8.099967956542969</v>
       </c>
       <c r="ET2">
-        <v>1.377372741699219</v>
+        <v>0.7831571698188782</v>
       </c>
       <c r="EU2">
-        <v>-1.653178334236145</v>
+        <v>-0.8858572840690613</v>
       </c>
       <c r="EV2">
-        <v>-3.521482467651367</v>
+        <v>-4.256142616271973</v>
       </c>
       <c r="EW2">
-        <v>-3.157817125320435</v>
+        <v>-2.812105178833008</v>
       </c>
       <c r="EX2">
-        <v>-8.55532169342041</v>
+        <v>-8.602455139160156</v>
       </c>
       <c r="EY2">
-        <v>1.462682485580444</v>
+        <v>0.8971996903419495</v>
       </c>
       <c r="EZ2">
-        <v>7.967865943908691</v>
+        <v>8.50385570526123</v>
       </c>
       <c r="FA2">
-        <v>-0.2496156841516495</v>
+        <v>0.189940333366394</v>
       </c>
       <c r="FB2">
-        <v>0.2022639513015747</v>
+        <v>0.5218388438224792</v>
       </c>
       <c r="FC2">
-        <v>-0.5821478962898254</v>
+        <v>-0.8091718554496765</v>
       </c>
       <c r="FD2">
-        <v>-0.3121094405651093</v>
+        <v>0.3063550889492035</v>
       </c>
       <c r="FE2">
-        <v>-5.801925182342529</v>
+        <v>-5.030458450317383</v>
       </c>
       <c r="FF2">
-        <v>-4.545990467071533</v>
+        <v>-4.967308521270752</v>
       </c>
       <c r="FG2">
-        <v>0.5888504385948181</v>
+        <v>0.3867389261722565</v>
       </c>
       <c r="FH2">
-        <v>2.412011861801147</v>
+        <v>2.935211181640625</v>
       </c>
       <c r="FI2">
-        <v>4.312083721160889</v>
+        <v>4.699708938598633</v>
       </c>
       <c r="FJ2">
-        <v>-3.455025196075439</v>
+        <v>-3.680944442749023</v>
       </c>
       <c r="FK2">
-        <v>14.85668849945068</v>
+        <v>15.46052932739258</v>
       </c>
       <c r="FL2">
-        <v>-2.073091983795166</v>
+        <v>-2.417367935180664</v>
       </c>
       <c r="FM2">
-        <v>-10.25484180450439</v>
+        <v>-10.88124370574951</v>
       </c>
       <c r="FN2">
-        <v>-2.413062572479248</v>
+        <v>-2.353400230407715</v>
       </c>
       <c r="FO2">
-        <v>-0.3061724007129669</v>
+        <v>-1.077144026756287</v>
       </c>
       <c r="FP2">
-        <v>0.198228731751442</v>
+        <v>-0.0007489155395887792</v>
       </c>
       <c r="FQ2">
-        <v>-1.475909471511841</v>
+        <v>-1.621223330497742</v>
       </c>
       <c r="FR2">
-        <v>1.43697464466095</v>
+        <v>1.827280521392822</v>
       </c>
       <c r="FS2">
-        <v>0.8519274592399597</v>
+        <v>0.4332084059715271</v>
       </c>
       <c r="FT2">
-        <v>-0.5324864387512207</v>
+        <v>-0.728049099445343</v>
       </c>
       <c r="FU2">
-        <v>-0.4393142759799957</v>
+        <v>-0.3705340325832367</v>
       </c>
       <c r="FV2">
-        <v>-0.4291770458221436</v>
+        <v>-1.068795442581177</v>
       </c>
       <c r="FW2">
-        <v>1.841475486755371</v>
+        <v>1.55770468711853</v>
       </c>
       <c r="FX2">
-        <v>1.607921957969666</v>
+        <v>1.844643473625183</v>
       </c>
       <c r="FY2">
-        <v>-0.8281394243240356</v>
+        <v>-0.2475605905056</v>
       </c>
       <c r="FZ2">
-        <v>0.1686165630817413</v>
+        <v>-0.1656963229179382</v>
       </c>
       <c r="GA2">
-        <v>-5.952502727508545</v>
+        <v>-6.294917583465576</v>
       </c>
       <c r="GB2">
-        <v>0.09524066746234894</v>
+        <v>0.6352595090866089</v>
       </c>
       <c r="GC2">
-        <v>-1.605362296104431</v>
+        <v>-1.912395834922791</v>
       </c>
       <c r="GD2">
-        <v>-9.115583419799805</v>
+        <v>-9.58554744720459</v>
       </c>
       <c r="GE2">
-        <v>1.99499237537384</v>
+        <v>1.718111157417297</v>
       </c>
       <c r="GF2">
-        <v>-0.1598942875862122</v>
+        <v>-0.4442411065101624</v>
       </c>
       <c r="GG2">
-        <v>-3.547566175460815</v>
+        <v>-3.44411301612854</v>
       </c>
       <c r="GH2">
-        <v>-2.440720319747925</v>
+        <v>-1.729542016983032</v>
       </c>
       <c r="GI2">
-        <v>6.850954055786133</v>
+        <v>6.390714168548584</v>
       </c>
       <c r="GJ2">
-        <v>-0.6451618075370789</v>
+        <v>-0.1554843783378601</v>
       </c>
       <c r="GK2">
-        <v>-1.593390107154846</v>
+        <v>-1.480979084968567</v>
       </c>
       <c r="GL2">
-        <v>-7.533540725708008</v>
+        <v>-7.156551361083984</v>
       </c>
       <c r="GM2">
-        <v>-0.1370043903589249</v>
+        <v>-0.09653483331203461</v>
       </c>
       <c r="GN2">
-        <v>-4.903017044067383</v>
+        <v>-4.365011215209961</v>
       </c>
       <c r="GO2">
-        <v>3.834794282913208</v>
+        <v>3.296770572662354</v>
       </c>
       <c r="GP2">
-        <v>1.531961560249329</v>
+        <v>1.147728800773621</v>
       </c>
       <c r="GQ2">
-        <v>-1.167899370193481</v>
+        <v>-1.08698308467865</v>
       </c>
       <c r="GR2">
-        <v>1.157471299171448</v>
+        <v>1.068942546844482</v>
       </c>
       <c r="GS2">
-        <v>4.935120105743408</v>
+        <v>5.038824558258057</v>
       </c>
       <c r="GT2">
-        <v>-0.03992584347724915</v>
+        <v>0.1092731282114983</v>
       </c>
       <c r="GU2">
-        <v>7.370017051696777</v>
+        <v>7.448018550872803</v>
       </c>
       <c r="GV2">
-        <v>-2.350946426391602</v>
+        <v>-2.601780652999878</v>
       </c>
       <c r="GW2">
-        <v>5.956474781036377</v>
+        <v>5.317841053009033</v>
       </c>
       <c r="GX2">
-        <v>0.3465814888477325</v>
+        <v>-0.1328811049461365</v>
       </c>
       <c r="GY2">
-        <v>1.106744408607483</v>
+        <v>0.7383341193199158</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Real Estate.xlsx
+++ b/static/Models/Classification/Equation/Real Estate.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>7.04689359664917</v>
+        <v>6.379003524780273</v>
       </c>
       <c r="C2">
-        <v>4.94105052947998</v>
+        <v>5.453058242797852</v>
       </c>
       <c r="D2">
-        <v>-3.622220993041992</v>
+        <v>-5.631766319274902</v>
       </c>
       <c r="E2">
-        <v>1.735189437866211</v>
+        <v>2.329041242599487</v>
       </c>
       <c r="F2">
-        <v>-2.767844676971436</v>
+        <v>-1.589767932891846</v>
       </c>
       <c r="G2">
-        <v>5.077572822570801</v>
+        <v>7.247334003448486</v>
       </c>
       <c r="H2">
-        <v>0.7135385274887085</v>
+        <v>0.4813454151153564</v>
       </c>
       <c r="I2">
-        <v>-0.6721218824386597</v>
+        <v>0.016612334176898</v>
       </c>
       <c r="J2">
-        <v>-7.025980472564697</v>
+        <v>-5.84277868270874</v>
       </c>
       <c r="K2">
-        <v>-1.187121629714966</v>
+        <v>-0.4140881896018982</v>
       </c>
       <c r="L2">
-        <v>-0.7227292060852051</v>
+        <v>-1.278089880943298</v>
       </c>
       <c r="M2">
-        <v>0.9625263810157776</v>
+        <v>0.6850844621658325</v>
       </c>
       <c r="N2">
-        <v>-1.391700029373169</v>
+        <v>-1.976771354675293</v>
       </c>
       <c r="O2">
-        <v>8.665024757385254</v>
+        <v>8.872296333312988</v>
       </c>
       <c r="P2">
-        <v>-6.116705894470215</v>
+        <v>-6.363674640655518</v>
       </c>
       <c r="Q2">
-        <v>-0.03903067111968994</v>
+        <v>1.949204206466675</v>
       </c>
       <c r="R2">
-        <v>1.581498622894287</v>
+        <v>0.7738347053527832</v>
       </c>
       <c r="S2">
-        <v>3.058943033218384</v>
+        <v>2.567785739898682</v>
       </c>
       <c r="T2">
-        <v>-2.770060777664185</v>
+        <v>-1.638461351394653</v>
       </c>
       <c r="U2">
-        <v>-9.945523262023926</v>
+        <v>-9.666337013244629</v>
       </c>
       <c r="V2">
-        <v>-2.974033355712891</v>
+        <v>-3.197124004364014</v>
       </c>
       <c r="W2">
-        <v>-4.653934955596924</v>
+        <v>-4.114981651306152</v>
       </c>
       <c r="X2">
-        <v>-0.002957795513793826</v>
+        <v>1.008994579315186</v>
       </c>
       <c r="Y2">
-        <v>-0.6863135695457458</v>
+        <v>-0.890914261341095</v>
       </c>
       <c r="Z2">
-        <v>0.8256840705871582</v>
+        <v>0.6906936168670654</v>
       </c>
       <c r="AA2">
-        <v>2.57765531539917</v>
+        <v>2.097682476043701</v>
       </c>
       <c r="AB2">
-        <v>1.587159037590027</v>
+        <v>1.807232856750488</v>
       </c>
       <c r="AC2">
-        <v>-4.106308937072754</v>
+        <v>-3.787279844284058</v>
       </c>
       <c r="AD2">
-        <v>0.7704235911369324</v>
+        <v>1.64847457408905</v>
       </c>
       <c r="AE2">
-        <v>10.32048416137695</v>
+        <v>10.34046077728271</v>
       </c>
       <c r="AF2">
-        <v>-0.8395287394523621</v>
+        <v>-2.056737184524536</v>
       </c>
       <c r="AG2">
-        <v>7.439527988433838</v>
+        <v>6.408504009246826</v>
       </c>
       <c r="AH2">
-        <v>-14.31454467773438</v>
+        <v>-14.37231731414795</v>
       </c>
       <c r="AI2">
-        <v>-2.894054174423218</v>
+        <v>-1.551548838615417</v>
       </c>
       <c r="AJ2">
-        <v>-2.976936817169189</v>
+        <v>-2.77544116973877</v>
       </c>
       <c r="AK2">
-        <v>2.207680702209473</v>
+        <v>1.765416383743286</v>
       </c>
       <c r="AL2">
-        <v>3.601756572723389</v>
+        <v>3.333454132080078</v>
       </c>
       <c r="AM2">
-        <v>3.239989042282104</v>
+        <v>2.922147750854492</v>
       </c>
       <c r="AN2">
-        <v>9.582548141479492</v>
+        <v>8.347405433654785</v>
       </c>
       <c r="AO2">
-        <v>7.290824890136719</v>
+        <v>7.477223873138428</v>
       </c>
       <c r="AP2">
-        <v>-10.08443832397461</v>
+        <v>-10.41316986083984</v>
       </c>
       <c r="AQ2">
-        <v>-0.5150564312934875</v>
+        <v>-0.3883790075778961</v>
       </c>
       <c r="AR2">
-        <v>8.343513488769531</v>
+        <v>8.022902488708496</v>
       </c>
       <c r="AS2">
-        <v>-9.316041946411133</v>
+        <v>-10.74541664123535</v>
       </c>
       <c r="AT2">
-        <v>1.253490090370178</v>
+        <v>2.097231388092041</v>
       </c>
       <c r="AU2">
-        <v>-5.44533634185791</v>
+        <v>-6.819423198699951</v>
       </c>
       <c r="AV2">
-        <v>-6.226391792297363</v>
+        <v>-5.195398330688477</v>
       </c>
       <c r="AW2">
-        <v>-0.9265498518943787</v>
+        <v>-1.594529986381531</v>
       </c>
       <c r="AX2">
-        <v>8.098104476928711</v>
+        <v>8.998833656311035</v>
       </c>
       <c r="AY2">
-        <v>-1.202439308166504</v>
+        <v>-2.217339515686035</v>
       </c>
       <c r="AZ2">
-        <v>6.120998859405518</v>
+        <v>7.398685932159424</v>
       </c>
       <c r="BA2">
-        <v>6.051232814788818</v>
+        <v>5.772893905639648</v>
       </c>
       <c r="BB2">
-        <v>12.55349636077881</v>
+        <v>12.40103912353516</v>
       </c>
       <c r="BC2">
-        <v>0.7764644026756287</v>
+        <v>2.075026273727417</v>
       </c>
       <c r="BD2">
-        <v>0.5879841446876526</v>
+        <v>1.38410484790802</v>
       </c>
       <c r="BE2">
-        <v>-2.087728023529053</v>
+        <v>-0.6888405084609985</v>
       </c>
       <c r="BF2">
-        <v>-1.98838210105896</v>
+        <v>-1.397207260131836</v>
       </c>
       <c r="BG2">
-        <v>1.005709290504456</v>
+        <v>1.860254049301147</v>
       </c>
       <c r="BH2">
-        <v>0.514615535736084</v>
+        <v>0.9886319041252136</v>
       </c>
       <c r="BI2">
-        <v>0.7875339984893799</v>
+        <v>2.173062562942505</v>
       </c>
       <c r="BJ2">
-        <v>4.482536792755127</v>
+        <v>6.190164089202881</v>
       </c>
       <c r="BK2">
-        <v>0.5836091637611389</v>
+        <v>-0.6326872706413269</v>
       </c>
       <c r="BL2">
-        <v>0.3653444945812225</v>
+        <v>-0.2767022550106049</v>
       </c>
       <c r="BM2">
-        <v>7.277582168579102</v>
+        <v>5.844547748565674</v>
       </c>
       <c r="BN2">
-        <v>-6.069784641265869</v>
+        <v>-5.778566837310791</v>
       </c>
       <c r="BO2">
-        <v>-12.38323783874512</v>
+        <v>-11.17908382415771</v>
       </c>
       <c r="BP2">
-        <v>-3.678297996520996</v>
+        <v>-4.967761039733887</v>
       </c>
       <c r="BQ2">
-        <v>0.9967978596687317</v>
+        <v>1.159067869186401</v>
       </c>
       <c r="BR2">
-        <v>1.380203008651733</v>
+        <v>2.426462650299072</v>
       </c>
       <c r="BS2">
-        <v>-0.7354063391685486</v>
+        <v>-2.307410001754761</v>
       </c>
       <c r="BT2">
-        <v>1.046700954437256</v>
+        <v>1.06619131565094</v>
       </c>
       <c r="BU2">
-        <v>0.482035368680954</v>
+        <v>1.652515292167664</v>
       </c>
       <c r="BV2">
-        <v>-10.42753314971924</v>
+        <v>-7.968907356262207</v>
       </c>
       <c r="BW2">
-        <v>-0.8753488659858704</v>
+        <v>-0.4169861674308777</v>
       </c>
       <c r="BX2">
-        <v>-7.720846652984619</v>
+        <v>-6.52901554107666</v>
       </c>
       <c r="BY2">
-        <v>-1.358930587768555</v>
+        <v>-0.8014127016067505</v>
       </c>
       <c r="BZ2">
-        <v>-4.572013378143311</v>
+        <v>-3.33246636390686</v>
       </c>
       <c r="CA2">
-        <v>0.5302327871322632</v>
+        <v>-1.022247672080994</v>
       </c>
       <c r="CB2">
-        <v>-5.650556564331055</v>
+        <v>-5.384063720703125</v>
       </c>
       <c r="CC2">
-        <v>-0.2688560485839844</v>
+        <v>0.7536312341690063</v>
       </c>
       <c r="CD2">
-        <v>-0.8428031206130981</v>
+        <v>-1.309877514839172</v>
       </c>
       <c r="CE2">
-        <v>-12.67640018463135</v>
+        <v>-12.27985095977783</v>
       </c>
       <c r="CF2">
-        <v>8.582306861877441</v>
+        <v>7.600531101226807</v>
       </c>
       <c r="CG2">
-        <v>-5.935815334320068</v>
+        <v>-4.115303993225098</v>
       </c>
       <c r="CH2">
-        <v>-10.32395553588867</v>
+        <v>-10.36258602142334</v>
       </c>
       <c r="CI2">
-        <v>-1.119586944580078</v>
+        <v>-0.3127224147319794</v>
       </c>
       <c r="CJ2">
-        <v>-3.082799434661865</v>
+        <v>-2.386950254440308</v>
       </c>
       <c r="CK2">
-        <v>-2.670077323913574</v>
+        <v>-1.143831968307495</v>
       </c>
       <c r="CL2">
-        <v>-2.562613964080811</v>
+        <v>-1.532262682914734</v>
       </c>
       <c r="CM2">
-        <v>-2.925207853317261</v>
+        <v>-3.919312715530396</v>
       </c>
       <c r="CN2">
-        <v>2.358451128005981</v>
+        <v>2.496088743209839</v>
       </c>
       <c r="CO2">
-        <v>-2.778396129608154</v>
+        <v>-1.973744988441467</v>
       </c>
       <c r="CP2">
-        <v>-3.920021772384644</v>
+        <v>-2.191522836685181</v>
       </c>
       <c r="CQ2">
-        <v>15.47149753570557</v>
+        <v>15.01557540893555</v>
       </c>
       <c r="CR2">
-        <v>3.389805316925049</v>
+        <v>2.063267230987549</v>
       </c>
       <c r="CS2">
-        <v>-2.031879901885986</v>
+        <v>-1.34019672870636</v>
       </c>
       <c r="CT2">
-        <v>0.2347698509693146</v>
+        <v>1.260035395622253</v>
       </c>
       <c r="CU2">
-        <v>-0.3511368036270142</v>
+        <v>1.104586601257324</v>
       </c>
       <c r="CV2">
-        <v>1.38786518573761</v>
+        <v>2.238559722900391</v>
       </c>
       <c r="CW2">
-        <v>-6.254741668701172</v>
+        <v>-6.643293857574463</v>
       </c>
       <c r="CX2">
-        <v>-0.8115609288215637</v>
+        <v>-0.729211151599884</v>
       </c>
       <c r="CY2">
-        <v>-3.539422512054443</v>
+        <v>-4.547863960266113</v>
       </c>
       <c r="CZ2">
-        <v>-2.236453056335449</v>
+        <v>-2.538579940795898</v>
       </c>
       <c r="DA2">
-        <v>-8.408684730529785</v>
+        <v>-6.267952919006348</v>
       </c>
       <c r="DB2">
-        <v>-3.745965719223022</v>
+        <v>-2.219093561172485</v>
       </c>
       <c r="DC2">
-        <v>2.826688528060913</v>
+        <v>2.196449518203735</v>
       </c>
       <c r="DD2">
-        <v>-6.885883808135986</v>
+        <v>-5.915465831756592</v>
       </c>
       <c r="DE2">
-        <v>1.068380355834961</v>
+        <v>1.905574321746826</v>
       </c>
       <c r="DF2">
-        <v>12.47558307647705</v>
+        <v>11.96862602233887</v>
       </c>
       <c r="DG2">
-        <v>-3.23681378364563</v>
+        <v>-2.257506370544434</v>
       </c>
       <c r="DH2">
-        <v>-7.129051685333252</v>
+        <v>-8.999524116516113</v>
       </c>
       <c r="DI2">
-        <v>-1.683912515640259</v>
+        <v>-2.092217922210693</v>
       </c>
       <c r="DJ2">
-        <v>-6.749539852142334</v>
+        <v>-7.775175094604492</v>
       </c>
       <c r="DK2">
-        <v>10.21951389312744</v>
+        <v>11.28585338592529</v>
       </c>
       <c r="DL2">
-        <v>11.01690769195557</v>
+        <v>10.83915710449219</v>
       </c>
       <c r="DM2">
-        <v>5.304329872131348</v>
+        <v>6.253516674041748</v>
       </c>
       <c r="DN2">
-        <v>1.323244571685791</v>
+        <v>2.249504327774048</v>
       </c>
       <c r="DO2">
-        <v>-4.41761589050293</v>
+        <v>-5.749001026153564</v>
       </c>
       <c r="DP2">
-        <v>6.064332962036133</v>
+        <v>5.626125812530518</v>
       </c>
       <c r="DQ2">
-        <v>1.393038988113403</v>
+        <v>1.694414615631104</v>
       </c>
       <c r="DR2">
-        <v>-0.6681118607521057</v>
+        <v>-1.672030210494995</v>
       </c>
       <c r="DS2">
-        <v>-11.54796886444092</v>
+        <v>-11.80374145507812</v>
       </c>
       <c r="DT2">
-        <v>-2.552352428436279</v>
+        <v>-2.242807149887085</v>
       </c>
       <c r="DU2">
-        <v>-3.201255798339844</v>
+        <v>-3.456921815872192</v>
       </c>
       <c r="DV2">
-        <v>0.8207635283470154</v>
+        <v>1.615569472312927</v>
       </c>
       <c r="DW2">
-        <v>2.166223287582397</v>
+        <v>2.866562128067017</v>
       </c>
       <c r="DX2">
-        <v>1.414835095405579</v>
+        <v>2.267102241516113</v>
       </c>
       <c r="DY2">
-        <v>-6.125940799713135</v>
+        <v>-7.071481704711914</v>
       </c>
       <c r="DZ2">
-        <v>-0.07583322376012802</v>
+        <v>-0.05396003276109695</v>
       </c>
       <c r="EA2">
-        <v>-7.525697708129883</v>
+        <v>-6.427845001220703</v>
       </c>
       <c r="EB2">
-        <v>-0.2190722823143005</v>
+        <v>0.1558665186166763</v>
       </c>
       <c r="EC2">
-        <v>0.2971878349781036</v>
+        <v>-1.240700960159302</v>
       </c>
       <c r="ED2">
-        <v>1.402087807655334</v>
+        <v>2.701417207717896</v>
       </c>
       <c r="EE2">
-        <v>-3.229889154434204</v>
+        <v>-2.203873872756958</v>
       </c>
       <c r="EF2">
-        <v>0.8632956743240356</v>
+        <v>-0.9756410717964172</v>
       </c>
       <c r="EG2">
-        <v>2.985267162322998</v>
+        <v>3.909240007400513</v>
       </c>
       <c r="EH2">
-        <v>-15.98924922943115</v>
+        <v>-15.62516975402832</v>
       </c>
       <c r="EI2">
-        <v>-7.662548542022705</v>
+        <v>-6.623548030853271</v>
       </c>
       <c r="EJ2">
-        <v>-2.746644020080566</v>
+        <v>-3.606559991836548</v>
       </c>
       <c r="EK2">
-        <v>0.3204271495342255</v>
+        <v>1.480061531066895</v>
       </c>
       <c r="EL2">
-        <v>-0.00771603174507618</v>
+        <v>0.3723979592323303</v>
       </c>
       <c r="EM2">
-        <v>1.677772045135498</v>
+        <v>0.7783376574516296</v>
       </c>
       <c r="EN2">
-        <v>13.51883411407471</v>
+        <v>13.40751838684082</v>
       </c>
       <c r="EO2">
-        <v>-1.544682502746582</v>
+        <v>0.1570205390453339</v>
       </c>
       <c r="EP2">
-        <v>-1.214970111846924</v>
+        <v>-1.448311328887939</v>
       </c>
       <c r="EQ2">
-        <v>-9.288951873779297</v>
+        <v>-10.22816467285156</v>
       </c>
       <c r="ER2">
-        <v>1.399598360061646</v>
+        <v>1.048498392105103</v>
       </c>
       <c r="ES2">
-        <v>-8.099967956542969</v>
+        <v>-7.558224678039551</v>
       </c>
       <c r="ET2">
-        <v>0.7831571698188782</v>
+        <v>1.745553851127625</v>
       </c>
       <c r="EU2">
-        <v>-0.8858572840690613</v>
+        <v>-2.40967869758606</v>
       </c>
       <c r="EV2">
-        <v>-4.256142616271973</v>
+        <v>-2.728733062744141</v>
       </c>
       <c r="EW2">
-        <v>-2.812105178833008</v>
+        <v>-3.455001831054688</v>
       </c>
       <c r="EX2">
-        <v>-8.602455139160156</v>
+        <v>-7.121025562286377</v>
       </c>
       <c r="EY2">
-        <v>0.8971996903419495</v>
+        <v>2.000679969787598</v>
       </c>
       <c r="EZ2">
-        <v>8.50385570526123</v>
+        <v>7.50700855255127</v>
       </c>
       <c r="FA2">
-        <v>0.189940333366394</v>
+        <v>-0.1681177020072937</v>
       </c>
       <c r="FB2">
-        <v>0.5218388438224792</v>
+        <v>0.7973700165748596</v>
       </c>
       <c r="FC2">
-        <v>-0.8091718554496765</v>
+        <v>-2.719766616821289</v>
       </c>
       <c r="FD2">
-        <v>0.3063550889492035</v>
+        <v>-0.1718722432851791</v>
       </c>
       <c r="FE2">
-        <v>-5.030458450317383</v>
+        <v>-5.575487613677979</v>
       </c>
       <c r="FF2">
-        <v>-4.967308521270752</v>
+        <v>-4.887560367584229</v>
       </c>
       <c r="FG2">
-        <v>0.3867389261722565</v>
+        <v>0.4948258399963379</v>
       </c>
       <c r="FH2">
-        <v>2.935211181640625</v>
+        <v>1.023026585578918</v>
       </c>
       <c r="FI2">
-        <v>4.699708938598633</v>
+        <v>3.509712934494019</v>
       </c>
       <c r="FJ2">
-        <v>-3.680944442749023</v>
+        <v>-4.517646789550781</v>
       </c>
       <c r="FK2">
-        <v>15.46052932739258</v>
+        <v>15.90464115142822</v>
       </c>
       <c r="FL2">
-        <v>-2.417367935180664</v>
+        <v>-4.573451519012451</v>
       </c>
       <c r="FM2">
-        <v>-10.88124370574951</v>
+        <v>-9.251740455627441</v>
       </c>
       <c r="FN2">
-        <v>-2.353400230407715</v>
+        <v>-2.709445238113403</v>
       </c>
       <c r="FO2">
-        <v>-1.077144026756287</v>
+        <v>-2.216862678527832</v>
       </c>
       <c r="FP2">
-        <v>-0.0007489155395887792</v>
+        <v>-0.3934978246688843</v>
       </c>
       <c r="FQ2">
-        <v>-1.621223330497742</v>
+        <v>-1.292032361030579</v>
       </c>
       <c r="FR2">
-        <v>1.827280521392822</v>
+        <v>2.049576282501221</v>
       </c>
       <c r="FS2">
-        <v>0.4332084059715271</v>
+        <v>1.381291627883911</v>
       </c>
       <c r="FT2">
-        <v>-0.728049099445343</v>
+        <v>-0.3078845739364624</v>
       </c>
       <c r="FU2">
-        <v>-0.3705340325832367</v>
+        <v>1.006569147109985</v>
       </c>
       <c r="FV2">
-        <v>-1.068795442581177</v>
+        <v>0.4411315321922302</v>
       </c>
       <c r="FW2">
-        <v>1.55770468711853</v>
+        <v>3.452813863754272</v>
       </c>
       <c r="FX2">
-        <v>1.844643473625183</v>
+        <v>3.573340654373169</v>
       </c>
       <c r="FY2">
-        <v>-0.2475605905056</v>
+        <v>-1.389823794364929</v>
       </c>
       <c r="FZ2">
-        <v>-0.1656963229179382</v>
+        <v>0.6936950087547302</v>
       </c>
       <c r="GA2">
-        <v>-6.294917583465576</v>
+        <v>-7.651484489440918</v>
       </c>
       <c r="GB2">
-        <v>0.6352595090866089</v>
+        <v>2.379676580429077</v>
       </c>
       <c r="GC2">
-        <v>-1.912395834922791</v>
+        <v>-2.455856561660767</v>
       </c>
       <c r="GD2">
-        <v>-9.58554744720459</v>
+        <v>-9.506270408630371</v>
       </c>
       <c r="GE2">
-        <v>1.718111157417297</v>
+        <v>2.136504173278809</v>
       </c>
       <c r="GF2">
-        <v>-0.4442411065101624</v>
+        <v>0.01841993071138859</v>
       </c>
       <c r="GG2">
-        <v>-3.44411301612854</v>
+        <v>-3.21117091178894</v>
       </c>
       <c r="GH2">
-        <v>-1.729542016983032</v>
+        <v>-0.4738291203975677</v>
       </c>
       <c r="GI2">
-        <v>6.390714168548584</v>
+        <v>4.321980953216553</v>
       </c>
       <c r="GJ2">
-        <v>-0.1554843783378601</v>
+        <v>-0.7193397879600525</v>
       </c>
       <c r="GK2">
-        <v>-1.480979084968567</v>
+        <v>-1.328563213348389</v>
       </c>
       <c r="GL2">
-        <v>-7.156551361083984</v>
+        <v>-6.234871864318848</v>
       </c>
       <c r="GM2">
-        <v>-0.09653483331203461</v>
+        <v>0.1400701552629471</v>
       </c>
       <c r="GN2">
-        <v>-4.365011215209961</v>
+        <v>-3.915598630905151</v>
       </c>
       <c r="GO2">
-        <v>3.296770572662354</v>
+        <v>4.404215812683105</v>
       </c>
       <c r="GP2">
-        <v>1.147728800773621</v>
+        <v>1.768896222114563</v>
       </c>
       <c r="GQ2">
-        <v>-1.08698308467865</v>
+        <v>-0.09779416024684906</v>
       </c>
       <c r="GR2">
-        <v>1.068942546844482</v>
+        <v>0.5051015615463257</v>
       </c>
       <c r="GS2">
-        <v>5.038824558258057</v>
+        <v>5.890567779541016</v>
       </c>
       <c r="GT2">
-        <v>0.1092731282114983</v>
+        <v>0.2215874493122101</v>
       </c>
       <c r="GU2">
-        <v>7.448018550872803</v>
+        <v>7.177543640136719</v>
       </c>
       <c r="GV2">
-        <v>-2.601780652999878</v>
+        <v>-1.913589596748352</v>
       </c>
       <c r="GW2">
-        <v>5.317841053009033</v>
+        <v>2.999720096588135</v>
       </c>
       <c r="GX2">
-        <v>-0.1328811049461365</v>
+        <v>0.3832089006900787</v>
       </c>
       <c r="GY2">
-        <v>0.7383341193199158</v>
+        <v>1.580931305885315</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Real Estate.xlsx
+++ b/static/Models/Classification/Equation/Real Estate.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.757147312164307</v>
+        <v>7.05532693862915</v>
       </c>
       <c r="C2" t="n">
-        <v>6.079477787017822</v>
+        <v>5.647479057312012</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.148594856262207</v>
+        <v>-6.368266105651855</v>
       </c>
       <c r="E2" t="n">
-        <v>2.332822322845459</v>
+        <v>2.787057638168335</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.94987952709198</v>
+        <v>-0.8486368656158447</v>
       </c>
       <c r="G2" t="n">
-        <v>6.75870943069458</v>
+        <v>6.502224445343018</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02155179344117641</v>
+        <v>-0.3696262240409851</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4615203142166138</v>
+        <v>-0.7504294514656067</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.377876758575439</v>
+        <v>-6.646239280700684</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3111356794834137</v>
+        <v>-0.5037211775779724</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.253643989562988</v>
+        <v>-2.305022239685059</v>
       </c>
       <c r="M2" t="n">
-        <v>1.237151741981506</v>
+        <v>0.680385410785675</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.661910533905029</v>
+        <v>-2.021917581558228</v>
       </c>
       <c r="O2" t="n">
-        <v>9.773695945739746</v>
+        <v>9.409643173217773</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.969618797302246</v>
+        <v>-6.055915832519531</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.512980937957764</v>
+        <v>1.703926563262939</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6898610591888428</v>
+        <v>0.2994233667850494</v>
       </c>
       <c r="S2" t="n">
-        <v>1.654452800750732</v>
+        <v>1.315631747245789</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.111038446426392</v>
+        <v>-2.367848634719849</v>
       </c>
       <c r="U2" t="n">
-        <v>-10.16781806945801</v>
+        <v>-10.44448471069336</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.659297704696655</v>
+        <v>-3.369547128677368</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.582946062088013</v>
+        <v>-3.237740039825439</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3411824703216553</v>
+        <v>-0.213483989238739</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2695868611335754</v>
+        <v>-0.5545724034309387</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1845485270023346</v>
+        <v>-0.3701434731483459</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.257029294967651</v>
+        <v>2.554782390594482</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.468316316604614</v>
+        <v>1.297451376914978</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.250504970550537</v>
+        <v>-3.691925525665283</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.166758060455322</v>
+        <v>0.8883819580078125</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.712978363037109</v>
+        <v>9.348898887634277</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.594817519187927</v>
+        <v>-1.001274466514587</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.938005447387695</v>
+        <v>6.357605457305908</v>
       </c>
       <c r="AH2" t="n">
-        <v>-14.92237567901611</v>
+        <v>-14.39547061920166</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.161897897720337</v>
+        <v>-1.584304690361023</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-2.594797134399414</v>
+        <v>-2.20477557182312</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.991690278053284</v>
+        <v>2.182828664779663</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.501663684844971</v>
+        <v>4.029859066009521</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.251544952392578</v>
+        <v>2.71559476852417</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.75970458984375</v>
+        <v>7.4528489112854</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.798925876617432</v>
+        <v>6.453627109527588</v>
       </c>
       <c r="AP2" t="n">
-        <v>-10.88532733917236</v>
+        <v>-10.95406532287598</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.07252562046051</v>
+        <v>-0.7817962765693665</v>
       </c>
       <c r="AR2" t="n">
-        <v>7.701484680175781</v>
+        <v>7.396363258361816</v>
       </c>
       <c r="AS2" t="n">
-        <v>-11.30259609222412</v>
+        <v>-11.61184215545654</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.660261631011963</v>
+        <v>1.79865837097168</v>
       </c>
       <c r="AU2" t="n">
-        <v>-6.294148445129395</v>
+        <v>-6.004876613616943</v>
       </c>
       <c r="AV2" t="n">
-        <v>-5.760648727416992</v>
+        <v>-6.056164264678955</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.09496545791626</v>
+        <v>-0.8313819766044617</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.537589073181152</v>
+        <v>9.238371849060059</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.724188566207886</v>
+        <v>-1.471447825431824</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.052164077758789</v>
+        <v>7.765721797943115</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.513596534729004</v>
+        <v>5.525215625762939</v>
       </c>
       <c r="BB2" t="n">
-        <v>12.81763935089111</v>
+        <v>12.03995037078857</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.063654899597168</v>
+        <v>2.604754686355591</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.8937591314315796</v>
+        <v>0.6164391040802002</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.308271050453186</v>
+        <v>-0.729597806930542</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.7880419492721558</v>
+        <v>-1.138507604598999</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.394002437591553</v>
+        <v>1.090765953063965</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.8684844970703125</v>
+        <v>1.394526243209839</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.666652083396912</v>
+        <v>1.397667288780212</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.97802209854126</v>
+        <v>6.094443321228027</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.2257277071475983</v>
+        <v>0.007291012909263372</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.1411109566688538</v>
+        <v>0.4366337060928345</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.271573543548584</v>
+        <v>5.204813480377197</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.524117946624756</v>
+        <v>-6.255548000335693</v>
       </c>
       <c r="BO2" t="n">
-        <v>-11.77585315704346</v>
+        <v>-11.4721736907959</v>
       </c>
       <c r="BP2" t="n">
-        <v>-5.397682666778564</v>
+        <v>-5.033308506011963</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.552213907241821</v>
+        <v>0.9990141987800598</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.125417709350586</v>
+        <v>3.333043813705444</v>
       </c>
       <c r="BS2" t="n">
-        <v>-2.862072467803955</v>
+        <v>-2.498908519744873</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.337830901145935</v>
+        <v>1.622976064682007</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.224213838577271</v>
+        <v>0.8719914555549622</v>
       </c>
       <c r="BV2" t="n">
-        <v>-8.440983772277832</v>
+        <v>-8.505500793457031</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.3015505075454712</v>
+        <v>0.7032740712165833</v>
       </c>
       <c r="BX2" t="n">
-        <v>-7.087557315826416</v>
+        <v>-7.370620250701904</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.330859661102295</v>
+        <v>-1.682169198989868</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.87233304977417</v>
+        <v>-4.172432899475098</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.5015566945075989</v>
+        <v>-0.2145273387432098</v>
       </c>
       <c r="CB2" t="n">
-        <v>-5.983277797698975</v>
+        <v>-6.292106151580811</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.2568282783031464</v>
+        <v>-0.04663406684994698</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.7088925838470459</v>
+        <v>-0.956350564956665</v>
       </c>
       <c r="CE2" t="n">
-        <v>-12.82119655609131</v>
+        <v>-13.06653118133545</v>
       </c>
       <c r="CF2" t="n">
-        <v>7.033112525939941</v>
+        <v>7.325386047363281</v>
       </c>
       <c r="CG2" t="n">
-        <v>-4.646546363830566</v>
+        <v>-4.805333137512207</v>
       </c>
       <c r="CH2" t="n">
-        <v>-10.82751846313477</v>
+        <v>-11.00366973876953</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.8119776248931885</v>
+        <v>-1.092301249504089</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.887248039245605</v>
+        <v>-2.299423217773438</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.581894993782043</v>
+        <v>-1.895601868629456</v>
       </c>
       <c r="CL2" t="n">
-        <v>-2.023336172103882</v>
+        <v>-2.32273268699646</v>
       </c>
       <c r="CM2" t="n">
-        <v>-4.415417671203613</v>
+        <v>-4.810187816619873</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.012395143508911</v>
+        <v>2.254032611846924</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.418997049331665</v>
+        <v>-2.669171094894409</v>
       </c>
       <c r="CP2" t="n">
-        <v>-2.565215110778809</v>
+        <v>-2.346028566360474</v>
       </c>
       <c r="CQ2" t="n">
-        <v>14.69018173217773</v>
+        <v>14.407883644104</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.560048341751099</v>
+        <v>2.749271631240845</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.87533974647522</v>
+        <v>-2.16046404838562</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.7623533606529236</v>
+        <v>0.468788206577301</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.3856383264064789</v>
+        <v>0.8622632026672363</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.755772352218628</v>
+        <v>3.346818685531616</v>
       </c>
       <c r="CW2" t="n">
-        <v>-7.128567695617676</v>
+        <v>-6.588353633880615</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.149985432624817</v>
+        <v>-0.806850254535675</v>
       </c>
       <c r="CY2" t="n">
-        <v>-4.055655002593994</v>
+        <v>-3.81396746635437</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-2.307440757751465</v>
+        <v>-1.969117164611816</v>
       </c>
       <c r="DA2" t="n">
-        <v>-6.794163703918457</v>
+        <v>-6.38592004776001</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.530922532081604</v>
+        <v>-1.5938640832901</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.786334991455078</v>
+        <v>2.233695268630981</v>
       </c>
       <c r="DD2" t="n">
-        <v>-6.465215682983398</v>
+        <v>-6.737361907958984</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.35212779045105</v>
+        <v>1.079118490219116</v>
       </c>
       <c r="DF2" t="n">
-        <v>12.33741188049316</v>
+        <v>12.45491409301758</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.496188759803772</v>
+        <v>-1.749867916107178</v>
       </c>
       <c r="DH2" t="n">
-        <v>-8.407118797302246</v>
+        <v>-8.853760719299316</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.564953565597534</v>
+        <v>-1.001594543457031</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-8.310331344604492</v>
+        <v>-8.573554992675781</v>
       </c>
       <c r="DK2" t="n">
-        <v>10.93008422851562</v>
+        <v>10.3052282333374</v>
       </c>
       <c r="DL2" t="n">
-        <v>10.28951168060303</v>
+        <v>9.736776351928711</v>
       </c>
       <c r="DM2" t="n">
-        <v>5.712220668792725</v>
+        <v>5.597642421722412</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.77241313457489</v>
+        <v>1.468877196311951</v>
       </c>
       <c r="DO2" t="n">
-        <v>-5.803202629089355</v>
+        <v>-6.410567760467529</v>
       </c>
       <c r="DP2" t="n">
-        <v>6.00366735458374</v>
+        <v>6.20106029510498</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.131538271903992</v>
+        <v>0.8831204175949097</v>
       </c>
       <c r="DR2" t="n">
-        <v>-2.073060750961304</v>
+        <v>-1.860137343406677</v>
       </c>
       <c r="DS2" t="n">
-        <v>-10.97248077392578</v>
+        <v>-11.44443511962891</v>
       </c>
       <c r="DT2" t="n">
-        <v>-2.140969753265381</v>
+        <v>-1.94786810874939</v>
       </c>
       <c r="DU2" t="n">
-        <v>-4.024473190307617</v>
+        <v>-4.359807014465332</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.9367165565490723</v>
+        <v>1.400997161865234</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.657024383544922</v>
+        <v>2.192560195922852</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.784913659095764</v>
+        <v>1.489576101303101</v>
       </c>
       <c r="DY2" t="n">
-        <v>-6.58299446105957</v>
+        <v>-7.021174907684326</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.4182386696338654</v>
+        <v>0.6744192242622375</v>
       </c>
       <c r="EA2" t="n">
-        <v>-6.957011699676514</v>
+        <v>-7.435832500457764</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.3261110782623291</v>
+        <v>-0.6074418425559998</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.795695185661316</v>
+        <v>-1.648106694221497</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.224338531494141</v>
+        <v>1.966341018676758</v>
       </c>
       <c r="EE2" t="n">
-        <v>-2.671930313110352</v>
+        <v>-2.932427883148193</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.4127492606639862</v>
+        <v>-0.6597033739089966</v>
       </c>
       <c r="EG2" t="n">
-        <v>4.345515727996826</v>
+        <v>4.160897731781006</v>
       </c>
       <c r="EH2" t="n">
-        <v>-16.17675018310547</v>
+        <v>-16.48806381225586</v>
       </c>
       <c r="EI2" t="n">
-        <v>-7.130174160003662</v>
+        <v>-7.460824489593506</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-4.019109725952148</v>
+        <v>-4.308111190795898</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9893561005592346</v>
+        <v>0.7114449143409729</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.08021477609872818</v>
+        <v>-0.3310117721557617</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.5939730405807495</v>
+        <v>0.9193183183670044</v>
       </c>
       <c r="EN2" t="n">
-        <v>13.50595855712891</v>
+        <v>13.33387660980225</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.3755547702312469</v>
+        <v>0.06045554205775261</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.5316560864448547</v>
+        <v>-0.6257203817367554</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-10.49075889587402</v>
+        <v>-11.1076774597168</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.528813600540161</v>
+        <v>1.24811327457428</v>
       </c>
       <c r="ES2" t="n">
-        <v>-8.070746421813965</v>
+        <v>-7.506302833557129</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.11539101600647</v>
+        <v>1.931351900100708</v>
       </c>
       <c r="EU2" t="n">
-        <v>-1.89366340637207</v>
+        <v>-1.675028920173645</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.430472373962402</v>
+        <v>-2.305248498916626</v>
       </c>
       <c r="EW2" t="n">
-        <v>-3.364804744720459</v>
+        <v>-3.574409484863281</v>
       </c>
       <c r="EX2" t="n">
-        <v>-7.082638740539551</v>
+        <v>-6.696432113647461</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.517571806907654</v>
+        <v>1.178300261497498</v>
       </c>
       <c r="EZ2" t="n">
-        <v>7.272970199584961</v>
+        <v>6.962869167327881</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.4187639057636261</v>
+        <v>-0.6290778517723083</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2412176430225372</v>
+        <v>-0.03153009712696075</v>
       </c>
       <c r="FC2" t="n">
-        <v>-2.133882761001587</v>
+        <v>-2.404075860977173</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.09870975464582443</v>
+        <v>0.4238494336605072</v>
       </c>
       <c r="FE2" t="n">
-        <v>-5.863972663879395</v>
+        <v>-6.28645133972168</v>
       </c>
       <c r="FF2" t="n">
-        <v>-5.400131702423096</v>
+        <v>-5.534424304962158</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.02031376771628857</v>
+        <v>-0.3874645233154297</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.558422863483429</v>
+        <v>0.2112884670495987</v>
       </c>
       <c r="FI2" t="n">
-        <v>3.966149568557739</v>
+        <v>4.134475231170654</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-4.08723783493042</v>
+        <v>-4.689982414245605</v>
       </c>
       <c r="FK2" t="n">
-        <v>15.54240036010742</v>
+        <v>15.19611644744873</v>
       </c>
       <c r="FL2" t="n">
-        <v>-4.984321594238281</v>
+        <v>-4.146832942962646</v>
       </c>
       <c r="FM2" t="n">
-        <v>-8.58226490020752</v>
+        <v>-8.525598526000977</v>
       </c>
       <c r="FN2" t="n">
-        <v>-2.291630983352661</v>
+        <v>-1.996110081672668</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.667815685272217</v>
+        <v>-1.692850351333618</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.4796447455883026</v>
+        <v>-0.554318368434906</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-1.745404005050659</v>
+        <v>-1.984909534454346</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.488616347312927</v>
+        <v>1.230705380439758</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.8899838328361511</v>
+        <v>0.6033869385719299</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.7226069569587708</v>
+        <v>-0.9390890598297119</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.5174034237861633</v>
+        <v>0.2743324935436249</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.03446909412741661</v>
+        <v>-0.282506138086319</v>
       </c>
       <c r="FW2" t="n">
-        <v>2.933690547943115</v>
+        <v>2.670730829238892</v>
       </c>
       <c r="FX2" t="n">
-        <v>4.387226581573486</v>
+        <v>3.67158317565918</v>
       </c>
       <c r="FY2" t="n">
-        <v>-2.038535356521606</v>
+        <v>-1.875081062316895</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.592741131782532</v>
+        <v>1.077087998390198</v>
       </c>
       <c r="GA2" t="n">
-        <v>-7.132027149200439</v>
+        <v>-7.642535209655762</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.711845397949219</v>
+        <v>1.030023336410522</v>
       </c>
       <c r="GC2" t="n">
-        <v>-2.303984642028809</v>
+        <v>-3.040654897689819</v>
       </c>
       <c r="GD2" t="n">
-        <v>-9.559088706970215</v>
+        <v>-10.37702465057373</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.6819669008255</v>
+        <v>1.431405544281006</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.5352074503898621</v>
+        <v>-0.6083446145057678</v>
       </c>
       <c r="GG2" t="n">
-        <v>-3.914507389068604</v>
+        <v>-4.2052321434021</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.9603848457336426</v>
+        <v>-0.6386421918869019</v>
       </c>
       <c r="GI2" t="n">
-        <v>3.88808274269104</v>
+        <v>3.841531991958618</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.302214026451111</v>
+        <v>-1.717595934867859</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.6745825409889221</v>
+        <v>-1.177289843559265</v>
       </c>
       <c r="GL2" t="n">
-        <v>-6.437601566314697</v>
+        <v>-6.619940757751465</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.3096842467784882</v>
+        <v>-0.1010088473558426</v>
       </c>
       <c r="GN2" t="n">
-        <v>-4.346954345703125</v>
+        <v>-4.419880867004395</v>
       </c>
       <c r="GO2" t="n">
-        <v>4.659732818603516</v>
+        <v>4.707808494567871</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.282981634140015</v>
+        <v>0.998980700969696</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.05229493230581284</v>
+        <v>-0.3119070827960968</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.9390333294868469</v>
+        <v>1.531722068786621</v>
       </c>
       <c r="GS2" t="n">
-        <v>6.153639316558838</v>
+        <v>5.857398509979248</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.7685267329216003</v>
+        <v>0.2690868675708771</v>
       </c>
       <c r="GU2" t="n">
-        <v>7.64532470703125</v>
+        <v>7.937803745269775</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.479516267776489</v>
+        <v>-1.845707178115845</v>
       </c>
       <c r="GW2" t="n">
-        <v>2.523451089859009</v>
+        <v>2.488209962844849</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.07078836113214493</v>
+        <v>-0.3495472073554993</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.101740002632141</v>
+        <v>0.8136041760444641</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Real Estate.xlsx
+++ b/static/Models/Classification/Equation/Real Estate.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.05532693862915</v>
+        <v>6.793224811553955</v>
       </c>
       <c r="C2" t="n">
-        <v>5.647479057312012</v>
+        <v>5.050962924957275</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.368266105651855</v>
+        <v>-5.770805358886719</v>
       </c>
       <c r="E2" t="n">
-        <v>2.787057638168335</v>
+        <v>2.234575748443604</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8486368656158447</v>
+        <v>-0.7303992509841919</v>
       </c>
       <c r="G2" t="n">
-        <v>6.502224445343018</v>
+        <v>6.135966300964355</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3696262240409851</v>
+        <v>-1.029667615890503</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7504294514656067</v>
+        <v>-0.3420195281505585</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.646239280700684</v>
+        <v>-6.625566482543945</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5037211775779724</v>
+        <v>-1.094853758811951</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.305022239685059</v>
+        <v>-2.693505525588989</v>
       </c>
       <c r="M2" t="n">
-        <v>0.680385410785675</v>
+        <v>-0.1775887012481689</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.021917581558228</v>
+        <v>-1.434162616729736</v>
       </c>
       <c r="O2" t="n">
-        <v>9.409643173217773</v>
+        <v>8.736881256103516</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.055915832519531</v>
+        <v>-5.794939994812012</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.703926563262939</v>
+        <v>2.379010915756226</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2994233667850494</v>
+        <v>0.6253185272216797</v>
       </c>
       <c r="S2" t="n">
-        <v>1.315631747245789</v>
+        <v>1.530739068984985</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.367848634719849</v>
+        <v>-1.931727051734924</v>
       </c>
       <c r="U2" t="n">
-        <v>-10.44448471069336</v>
+        <v>-9.583928108215332</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.369547128677368</v>
+        <v>-2.824333906173706</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.237740039825439</v>
+        <v>-2.784501791000366</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.213483989238739</v>
+        <v>-0.8680170774459839</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.5545724034309387</v>
+        <v>-1.266006588935852</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.3701434731483459</v>
+        <v>0.1908060014247894</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.554782390594482</v>
+        <v>3.425942897796631</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.297451376914978</v>
+        <v>0.6211166977882385</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.691925525665283</v>
+        <v>-3.575618505477905</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8883819580078125</v>
+        <v>1.244734644889832</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.348898887634277</v>
+        <v>8.661599159240723</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.001274466514587</v>
+        <v>-1.580417037010193</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.357605457305908</v>
+        <v>6.88440465927124</v>
       </c>
       <c r="AH2" t="n">
-        <v>-14.39547061920166</v>
+        <v>-14.81726264953613</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.584304690361023</v>
+        <v>-1.674814701080322</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-2.20477557182312</v>
+        <v>-1.431387662887573</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.182828664779663</v>
+        <v>2.81162166595459</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.029859066009521</v>
+        <v>4.646624088287354</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.71559476852417</v>
+        <v>3.297389507293701</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4528489112854</v>
+        <v>6.967154026031494</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.453627109527588</v>
+        <v>7.075140476226807</v>
       </c>
       <c r="AP2" t="n">
-        <v>-10.95406532287598</v>
+        <v>-10.47412204742432</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.7817962765693665</v>
+        <v>-1.542797565460205</v>
       </c>
       <c r="AR2" t="n">
-        <v>7.396363258361816</v>
+        <v>7.625923156738281</v>
       </c>
       <c r="AS2" t="n">
-        <v>-11.61184215545654</v>
+        <v>-12.1350622177124</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.79865837097168</v>
+        <v>0.9470792412757874</v>
       </c>
       <c r="AU2" t="n">
-        <v>-6.004876613616943</v>
+        <v>-5.942782878875732</v>
       </c>
       <c r="AV2" t="n">
-        <v>-6.056164264678955</v>
+        <v>-6.890984535217285</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8313819766044617</v>
+        <v>-1.360666394233704</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.238371849060059</v>
+        <v>9.919702529907227</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.471447825431824</v>
+        <v>-0.8333576321601868</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.765721797943115</v>
+        <v>7.228543758392334</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.525215625762939</v>
+        <v>4.805631637573242</v>
       </c>
       <c r="BB2" t="n">
-        <v>12.03995037078857</v>
+        <v>12.61456871032715</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.604754686355591</v>
+        <v>2.285045385360718</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.6164391040802002</v>
+        <v>0.9416807889938354</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.729597806930542</v>
+        <v>-1.238862037658691</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.138507604598999</v>
+        <v>-1.914908528327942</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.090765953063965</v>
+        <v>1.492863297462463</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.394526243209839</v>
+        <v>0.7372132539749146</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.397667288780212</v>
+        <v>1.872290849685669</v>
       </c>
       <c r="BJ2" t="n">
-        <v>6.094443321228027</v>
+        <v>5.464505195617676</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.007291012909263372</v>
+        <v>0.6002200841903687</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.4366337060928345</v>
+        <v>0.1680195182561874</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.204813480377197</v>
+        <v>5.727017402648926</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.255548000335693</v>
+        <v>-6.578328132629395</v>
       </c>
       <c r="BO2" t="n">
-        <v>-11.4721736907959</v>
+        <v>-10.714035987854</v>
       </c>
       <c r="BP2" t="n">
-        <v>-5.033308506011963</v>
+        <v>-4.416405200958252</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.9990141987800598</v>
+        <v>1.45413863658905</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.333043813705444</v>
+        <v>2.637725114822388</v>
       </c>
       <c r="BS2" t="n">
-        <v>-2.498908519744873</v>
+        <v>-1.737998008728027</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.622976064682007</v>
+        <v>1.860128283500671</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.8719914555549622</v>
+        <v>1.204793930053711</v>
       </c>
       <c r="BV2" t="n">
-        <v>-8.505500793457031</v>
+        <v>-8.699735641479492</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.7032740712165833</v>
+        <v>0.3398628234863281</v>
       </c>
       <c r="BX2" t="n">
-        <v>-7.370620250701904</v>
+        <v>-7.655903816223145</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.682169198989868</v>
+        <v>-1.067980289459229</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-4.172432899475098</v>
+        <v>-3.786534070968628</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.2145273387432098</v>
+        <v>-0.4904473423957825</v>
       </c>
       <c r="CB2" t="n">
-        <v>-6.292106151580811</v>
+        <v>-6.791459083557129</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.04663406684994698</v>
+        <v>0.4794300198554993</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.956350564956665</v>
+        <v>-0.6091378927230835</v>
       </c>
       <c r="CE2" t="n">
-        <v>-13.06653118133545</v>
+        <v>-12.45844078063965</v>
       </c>
       <c r="CF2" t="n">
-        <v>7.325386047363281</v>
+        <v>7.520116806030273</v>
       </c>
       <c r="CG2" t="n">
-        <v>-4.805333137512207</v>
+        <v>-5.274720668792725</v>
       </c>
       <c r="CH2" t="n">
-        <v>-11.00366973876953</v>
+        <v>-11.5811939239502</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.092301249504089</v>
+        <v>-0.6853334307670593</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-2.299423217773438</v>
+        <v>-1.736112952232361</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.895601868629456</v>
+        <v>-1.644868016242981</v>
       </c>
       <c r="CL2" t="n">
-        <v>-2.32273268699646</v>
+        <v>-1.850725769996643</v>
       </c>
       <c r="CM2" t="n">
-        <v>-4.810187816619873</v>
+        <v>-4.141992092132568</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.254032611846924</v>
+        <v>1.490963935852051</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.669171094894409</v>
+        <v>-2.769680976867676</v>
       </c>
       <c r="CP2" t="n">
-        <v>-2.346028566360474</v>
+        <v>-1.631965637207031</v>
       </c>
       <c r="CQ2" t="n">
-        <v>14.407883644104</v>
+        <v>13.80669212341309</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.749271631240845</v>
+        <v>3.450381517410278</v>
       </c>
       <c r="CS2" t="n">
-        <v>-2.16046404838562</v>
+        <v>-1.760430335998535</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.468788206577301</v>
+        <v>1.016947984695435</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.8622632026672363</v>
+        <v>0.5747292637825012</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.346818685531616</v>
+        <v>3.705689191818237</v>
       </c>
       <c r="CW2" t="n">
-        <v>-6.588353633880615</v>
+        <v>-5.993077754974365</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.806850254535675</v>
+        <v>-0.01321001257747412</v>
       </c>
       <c r="CY2" t="n">
-        <v>-3.81396746635437</v>
+        <v>-4.314080715179443</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.969117164611816</v>
+        <v>-2.313515424728394</v>
       </c>
       <c r="DA2" t="n">
-        <v>-6.38592004776001</v>
+        <v>-6.975192546844482</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.5938640832901</v>
+        <v>-2.25756573677063</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.233695268630981</v>
+        <v>1.552983522415161</v>
       </c>
       <c r="DD2" t="n">
-        <v>-6.737361907958984</v>
+        <v>-7.034862041473389</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.079118490219116</v>
+        <v>1.428693294525146</v>
       </c>
       <c r="DF2" t="n">
-        <v>12.45491409301758</v>
+        <v>12.16184902191162</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.749867916107178</v>
+        <v>-2.322283506393433</v>
       </c>
       <c r="DH2" t="n">
-        <v>-8.853760719299316</v>
+        <v>-8.414212226867676</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.001594543457031</v>
+        <v>-0.3831062316894531</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-8.573554992675781</v>
+        <v>-7.951108455657959</v>
       </c>
       <c r="DK2" t="n">
-        <v>10.3052282333374</v>
+        <v>10.81293487548828</v>
       </c>
       <c r="DL2" t="n">
-        <v>9.736776351928711</v>
+        <v>9.237996101379395</v>
       </c>
       <c r="DM2" t="n">
-        <v>5.597642421722412</v>
+        <v>4.939742565155029</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.468877196311951</v>
+        <v>1.893504619598389</v>
       </c>
       <c r="DO2" t="n">
-        <v>-6.410567760467529</v>
+        <v>-5.928072452545166</v>
       </c>
       <c r="DP2" t="n">
-        <v>6.20106029510498</v>
+        <v>6.172201633453369</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.8831204175949097</v>
+        <v>1.217180728912354</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.860137343406677</v>
+        <v>-1.309640169143677</v>
       </c>
       <c r="DS2" t="n">
-        <v>-11.44443511962891</v>
+        <v>-11.87847709655762</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.94786810874939</v>
+        <v>-2.41522216796875</v>
       </c>
       <c r="DU2" t="n">
-        <v>-4.359807014465332</v>
+        <v>-4.878371715545654</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.400997161865234</v>
+        <v>0.8399991989135742</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.192560195922852</v>
+        <v>1.488300204277039</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.489576101303101</v>
+        <v>1.866786241531372</v>
       </c>
       <c r="DY2" t="n">
-        <v>-7.021174907684326</v>
+        <v>-6.555354118347168</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.6744192242622375</v>
+        <v>0.004415710456669331</v>
       </c>
       <c r="EA2" t="n">
-        <v>-7.435832500457764</v>
+        <v>-8.310413360595703</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.6074418425559998</v>
+        <v>-0.263691633939743</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.648106694221497</v>
+        <v>-1.229053139686584</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.966341018676758</v>
+        <v>2.393061637878418</v>
       </c>
       <c r="EE2" t="n">
-        <v>-2.932427883148193</v>
+        <v>-2.686733961105347</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.6597033739089966</v>
+        <v>-0.1920171082019806</v>
       </c>
       <c r="EG2" t="n">
-        <v>4.160897731781006</v>
+        <v>4.7401123046875</v>
       </c>
       <c r="EH2" t="n">
-        <v>-16.48806381225586</v>
+        <v>-15.85627460479736</v>
       </c>
       <c r="EI2" t="n">
-        <v>-7.460824489593506</v>
+        <v>-6.558513164520264</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-4.308111190795898</v>
+        <v>-3.656744003295898</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.7114449143409729</v>
+        <v>0.9312815070152283</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.3310117721557617</v>
+        <v>-0.2753095030784607</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9193183183670044</v>
+        <v>0.3534348011016846</v>
       </c>
       <c r="EN2" t="n">
-        <v>13.33387660980225</v>
+        <v>13.91497611999512</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.06045554205775261</v>
+        <v>-0.382821649312973</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.6257203817367554</v>
+        <v>-0.2712974548339844</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-11.1076774597168</v>
+        <v>-10.50643253326416</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.24811327457428</v>
+        <v>1.012235879898071</v>
       </c>
       <c r="ES2" t="n">
-        <v>-7.506302833557129</v>
+        <v>-7.736504554748535</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.931351900100708</v>
+        <v>1.268334746360779</v>
       </c>
       <c r="EU2" t="n">
-        <v>-1.675028920173645</v>
+        <v>-1.357214093208313</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.305248498916626</v>
+        <v>-3.045755624771118</v>
       </c>
       <c r="EW2" t="n">
-        <v>-3.574409484863281</v>
+        <v>-2.893444061279297</v>
       </c>
       <c r="EX2" t="n">
-        <v>-6.696432113647461</v>
+        <v>-6.350017547607422</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.178300261497498</v>
+        <v>1.097464203834534</v>
       </c>
       <c r="EZ2" t="n">
-        <v>6.962869167327881</v>
+        <v>6.356507778167725</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.6290778517723083</v>
+        <v>0.2257775068283081</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.03153009712696075</v>
+        <v>0.3386801481246948</v>
       </c>
       <c r="FC2" t="n">
-        <v>-2.404075860977173</v>
+        <v>-1.923647999763489</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.4238494336605072</v>
+        <v>0.198405995965004</v>
       </c>
       <c r="FE2" t="n">
-        <v>-6.28645133972168</v>
+        <v>-5.750551223754883</v>
       </c>
       <c r="FF2" t="n">
-        <v>-5.534424304962158</v>
+        <v>-5.018019199371338</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.3874645233154297</v>
+        <v>-0.06293245404958725</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.2112884670495987</v>
+        <v>-0.2091677337884903</v>
       </c>
       <c r="FI2" t="n">
-        <v>4.134475231170654</v>
+        <v>3.88221263885498</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-4.689982414245605</v>
+        <v>-4.116489887237549</v>
       </c>
       <c r="FK2" t="n">
-        <v>15.19611644744873</v>
+        <v>14.98032283782959</v>
       </c>
       <c r="FL2" t="n">
-        <v>-4.146832942962646</v>
+        <v>-3.658065319061279</v>
       </c>
       <c r="FM2" t="n">
-        <v>-8.525598526000977</v>
+        <v>-8.134206771850586</v>
       </c>
       <c r="FN2" t="n">
-        <v>-1.996110081672668</v>
+        <v>-2.283018112182617</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.692850351333618</v>
+        <v>-0.9812600612640381</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.554318368434906</v>
+        <v>0.04255596548318863</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-1.984909534454346</v>
+        <v>-2.05856728553772</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.230705380439758</v>
+        <v>1.578954696655273</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.6033869385719299</v>
+        <v>1.169029355049133</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.9390890598297119</v>
+        <v>-1.375611782073975</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.2743324935436249</v>
+        <v>0.7298253178596497</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.282506138086319</v>
+        <v>0.1181928366422653</v>
       </c>
       <c r="FW2" t="n">
-        <v>2.670730829238892</v>
+        <v>3.091376543045044</v>
       </c>
       <c r="FX2" t="n">
-        <v>3.67158317565918</v>
+        <v>3.010524988174438</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.875081062316895</v>
+        <v>-1.482212543487549</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.077087998390198</v>
+        <v>1.650123000144958</v>
       </c>
       <c r="GA2" t="n">
-        <v>-7.642535209655762</v>
+        <v>-7.415311336517334</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.030023336410522</v>
+        <v>0.4375104606151581</v>
       </c>
       <c r="GC2" t="n">
-        <v>-3.040654897689819</v>
+        <v>-2.736855745315552</v>
       </c>
       <c r="GD2" t="n">
-        <v>-10.37702465057373</v>
+        <v>-11.01134777069092</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.431405544281006</v>
+        <v>1.367856621742249</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.6083446145057678</v>
+        <v>-0.2863844335079193</v>
       </c>
       <c r="GG2" t="n">
-        <v>-4.2052321434021</v>
+        <v>-4.657272815704346</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.6386421918869019</v>
+        <v>-0.1035105586051941</v>
       </c>
       <c r="GI2" t="n">
-        <v>3.841531991958618</v>
+        <v>3.038218975067139</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.717595934867859</v>
+        <v>-0.9544976353645325</v>
       </c>
       <c r="GK2" t="n">
-        <v>-1.177289843559265</v>
+        <v>-0.8529325127601624</v>
       </c>
       <c r="GL2" t="n">
-        <v>-6.619940757751465</v>
+        <v>-7.297944068908691</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.1010088473558426</v>
+        <v>0.5357671976089478</v>
       </c>
       <c r="GN2" t="n">
-        <v>-4.419880867004395</v>
+        <v>-5.006206035614014</v>
       </c>
       <c r="GO2" t="n">
-        <v>4.707808494567871</v>
+        <v>4.011439323425293</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.998980700969696</v>
+        <v>1.452857971191406</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.3119070827960968</v>
+        <v>-0.9568799734115601</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.531722068786621</v>
+        <v>2.167644023895264</v>
       </c>
       <c r="GS2" t="n">
-        <v>5.857398509979248</v>
+        <v>5.331799983978271</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.2690868675708771</v>
+        <v>-0.4080779254436493</v>
       </c>
       <c r="GU2" t="n">
-        <v>7.937803745269775</v>
+        <v>7.392775058746338</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.845707178115845</v>
+        <v>-2.486163139343262</v>
       </c>
       <c r="GW2" t="n">
-        <v>2.488209962844849</v>
+        <v>1.807244777679443</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.3495472073554993</v>
+        <v>-0.6328650712966919</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.8136041760444641</v>
+        <v>1.154514789581299</v>
       </c>
     </row>
   </sheetData>
